--- a/Data Prep.xlsx
+++ b/Data Prep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\Freelancing\Genetic Algorithm Jaringan Kapal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\Freelancing\Genetic Algorithm Jaringan Kapal item is object\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E0FDB-DEB6-4A8E-91B0-3AF2AF027854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FFF09-54E1-4D6B-A64D-D5BF8B0CFA50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="20490" windowHeight="10905" tabRatio="775" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="775" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha_up" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="121">
   <si>
     <t>Namlea</t>
   </si>
@@ -5455,10 +5455,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:CK1000"/>
+  <dimension ref="A1:CI1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:CK1"/>
+    <sheetView topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CI3" sqref="CI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5466,7 +5466,7 @@
     <col min="1" max="71" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
@@ -5509,8 +5509,8 @@
       <c r="O1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>31</v>
+      <c r="P1" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>32</v>
@@ -5684,55 +5684,49 @@
         <v>2</v>
       </c>
       <c r="BV1" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW1" s="25" t="s">
         <v>33</v>
       </c>
+      <c r="BW1" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="BX1" s="21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BY1" s="21" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="BZ1" s="21" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="CA1" s="21" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="CB1" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="CC1" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CD1" s="21" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="CE1" s="21" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="CF1" s="21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="CG1" s="21" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="CH1" s="21" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="CI1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="CK1" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -5845,7 +5839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -5910,7 +5904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
@@ -5969,7 +5963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -6055,7 +6049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -6093,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6110,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -6166,7 +6160,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>0</v>
       </c>
@@ -6204,7 +6198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
@@ -7242,10 +7236,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:CK1000"/>
+  <dimension ref="A1:CI1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:CK10"/>
+    <sheetView topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CI1" sqref="CI1:CI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7253,7 +7247,7 @@
     <col min="1" max="71" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
@@ -7296,8 +7290,8 @@
       <c r="O1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>31</v>
+      <c r="P1" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>32</v>
@@ -7471,55 +7465,49 @@
         <v>2</v>
       </c>
       <c r="BV1" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW1" s="25" t="s">
         <v>33</v>
       </c>
+      <c r="BW1" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="BX1" s="21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BY1" s="21" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="BZ1" s="21" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="CA1" s="21" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="CB1" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="CC1" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CD1" s="21" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="CE1" s="21" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="CF1" s="21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="CG1" s="21" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="CH1" s="21" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="CI1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="CK1" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -7734,7 +7722,7 @@
         <v>59578.559999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -7949,7 +7937,7 @@
         <v>58957.950000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
@@ -8164,7 +8152,7 @@
         <v>29168.670000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -8379,7 +8367,7 @@
         <v>76335.03</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -8594,7 +8582,7 @@
         <v>68887.710000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -8809,7 +8797,7 @@
         <v>47580.1</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -9024,7 +9012,7 @@
         <v>13653.42</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>0</v>
       </c>
@@ -9239,7 +9227,7 @@
         <v>67853.36</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
@@ -10442,10 +10430,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:CK1000"/>
+  <dimension ref="A1:CI1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CJ1" sqref="CJ1:CK1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10453,7 +10441,7 @@
     <col min="1" max="71" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
@@ -10496,8 +10484,8 @@
       <c r="O1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>31</v>
+      <c r="P1" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>32</v>
@@ -10671,55 +10659,49 @@
         <v>2</v>
       </c>
       <c r="BV1" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW1" s="25" t="s">
         <v>33</v>
       </c>
+      <c r="BW1" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="BX1" s="21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BY1" s="21" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="BZ1" s="21" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="CA1" s="21" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="CB1" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="CC1" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CD1" s="21" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="CE1" s="21" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="CF1" s="21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="CG1" s="21" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="CH1" s="21" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="CI1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="CK1" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -10934,7 +10916,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -11149,7 +11131,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
@@ -11364,7 +11346,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -11579,7 +11561,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -11794,7 +11776,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -12009,7 +11991,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -12224,7 +12206,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>0</v>
       </c>
@@ -12439,7 +12421,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
@@ -13743,10 +13725,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C91A58-2ED1-4D11-A967-F5FE30FFE6E1}">
-  <dimension ref="A1:CK88"/>
+  <dimension ref="A1:CK86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:A88"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13910,371 +13892,361 @@
     </row>
     <row r="15" spans="1:89" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:89" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>37</v>
+      <c r="A21" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>38</v>
+      <c r="A22" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>44</v>
+      <c r="A28" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>45</v>
+      <c r="A29" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="25" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -15536,7 +15508,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15638,7 +15610,7 @@
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15656,7 +15628,7 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15806,7 +15778,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15973,10 +15945,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29588B-8EE5-4C8E-A5E1-8320351B4284}">
-  <dimension ref="A1:CY103"/>
+  <dimension ref="A1:CW101"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:CY103"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BH8" sqref="BH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15986,7 +15958,7 @@
     <col min="3" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="32" t="s">
         <v>44</v>
@@ -16064,264 +16036,258 @@
         <v>62</v>
       </c>
       <c r="AA1" s="33" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AB1" s="33" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="AC1" s="33" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE1" s="33" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AF1" s="33" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="AG1" s="33" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AH1" s="33" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AI1" s="33" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="AJ1" s="33" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AK1" s="33" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="AL1" s="33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AM1" s="33" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="33" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AO1" s="33" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="AP1" s="33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AQ1" s="33" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="AR1" s="33" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AS1" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AT1" s="33" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AU1" s="33" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AV1" s="33" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AW1" s="33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AX1" s="33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AY1" s="33" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AZ1" s="33" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="BA1" s="33" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="BB1" s="33" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="BC1" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BD1" s="33" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="BE1" s="33" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="BF1" s="33" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="BG1" s="33" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="BH1" s="33" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="BI1" s="33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BJ1" s="33" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="BK1" s="33" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="BL1" s="33" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="BM1" s="33" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="BN1" s="33" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="BO1" s="33" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="BP1" s="33" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="33" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="BR1" s="33" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="BS1" s="33" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="BT1" s="33" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="BU1" s="33" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BV1" s="33" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="BW1" s="33" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BX1" s="33" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="BY1" s="33" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="BZ1" s="33" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="CA1" s="33" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="CB1" s="33" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="CC1" s="33" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="CD1" s="33" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="CE1" s="33" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="CF1" s="33" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="CG1" s="33" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="CH1" s="33" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="CI1" s="33" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="CJ1" s="33" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="CK1" s="33" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="CL1" s="33" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="CM1" s="33" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="CN1" s="33" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="CO1" s="33" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="CP1" s="33" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="CQ1" s="33" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="CR1" s="33" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="CS1" s="33" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="CT1" s="33" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="CU1" s="33" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="CV1" s="33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="CW1" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="CX1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="CY1" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:101" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
@@ -16373,185 +16339,185 @@
       <c r="Z7" s="26">
         <v>15515.25</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AA7" s="26">
         <v>9309.15</v>
       </c>
+      <c r="AC7" s="26">
+        <v>61647.26</v>
+      </c>
       <c r="AD7" s="26">
-        <v>61647.26</v>
+        <v>57302.99</v>
       </c>
       <c r="AE7" s="26">
+        <v>86678.53</v>
+      </c>
+      <c r="AG7" s="26">
+        <v>34961.03</v>
+      </c>
+      <c r="AI7" s="26">
+        <v>56475.51</v>
+      </c>
+      <c r="AJ7" s="26">
+        <v>21307.61</v>
+      </c>
+      <c r="AK7" s="26">
+        <v>51096.89</v>
+      </c>
+      <c r="AL7" s="26">
+        <v>29168.67</v>
+      </c>
+      <c r="AM7" s="26">
+        <v>47166.36</v>
+      </c>
+      <c r="AO7" s="26">
+        <v>41580.870000000003</v>
+      </c>
+      <c r="AP7" s="26">
+        <v>42822.09</v>
+      </c>
+      <c r="AR7" s="26">
+        <v>59164.82</v>
+      </c>
+      <c r="AS7" s="26">
+        <v>53993.07</v>
+      </c>
+      <c r="AU7" s="26">
+        <v>75093.81</v>
+      </c>
+      <c r="AV7" s="26">
+        <v>43442.7</v>
+      </c>
+      <c r="AW7" s="26">
+        <v>35374.769999999997</v>
+      </c>
+      <c r="AX7" s="26">
+        <v>39098.43</v>
+      </c>
+      <c r="AZ7" s="26">
+        <v>9102.2800000000007</v>
+      </c>
+      <c r="BB7" s="26">
+        <v>48200.71</v>
+      </c>
+      <c r="BC7" s="26">
+        <v>53786.2</v>
+      </c>
+      <c r="BE7" s="26">
+        <v>54820.55</v>
+      </c>
+      <c r="BF7" s="26">
+        <v>16963.34</v>
+      </c>
+      <c r="BH7" s="26">
+        <v>87919.75</v>
+      </c>
+      <c r="BI7" s="26">
+        <v>81920.52</v>
+      </c>
+      <c r="BK7" s="26">
+        <v>27513.71</v>
+      </c>
+      <c r="BM7" s="26">
+        <v>40753.39</v>
+      </c>
+      <c r="BN7" s="26">
+        <v>104676.22</v>
+      </c>
+      <c r="BP7" s="26">
+        <v>6206.1</v>
+      </c>
+      <c r="BQ7" s="26">
         <v>57302.99</v>
       </c>
-      <c r="AF7" s="26">
-        <v>86678.53</v>
-      </c>
-      <c r="AH7" s="26">
-        <v>34961.03</v>
-      </c>
-      <c r="AJ7" s="26">
-        <v>56475.51</v>
-      </c>
-      <c r="AK7" s="26">
-        <v>21307.61</v>
-      </c>
-      <c r="AL7" s="26">
-        <v>51096.89</v>
-      </c>
-      <c r="AM7" s="26">
-        <v>29168.67</v>
-      </c>
-      <c r="AN7" s="26">
-        <v>47166.36</v>
-      </c>
-      <c r="AP7" s="26">
-        <v>41580.870000000003</v>
-      </c>
-      <c r="AQ7" s="26">
-        <v>42822.09</v>
-      </c>
-      <c r="AS7" s="26">
-        <v>59164.82</v>
-      </c>
-      <c r="AT7" s="26">
-        <v>53993.07</v>
-      </c>
-      <c r="AV7" s="26">
-        <v>75093.81</v>
-      </c>
-      <c r="AW7" s="26">
-        <v>43442.7</v>
-      </c>
-      <c r="AX7" s="26">
-        <v>35374.769999999997</v>
-      </c>
-      <c r="AY7" s="26">
-        <v>39098.43</v>
-      </c>
-      <c r="BA7" s="26">
-        <v>9102.2800000000007</v>
-      </c>
-      <c r="BC7" s="26">
+      <c r="BS7" s="26">
+        <v>100952.56</v>
+      </c>
+      <c r="BT7" s="26">
+        <v>72818.240000000005</v>
+      </c>
+      <c r="BV7" s="26">
+        <v>39719.040000000001</v>
+      </c>
+      <c r="BW7" s="26">
+        <v>80679.3</v>
+      </c>
+      <c r="BX7" s="26">
+        <v>17790.82</v>
+      </c>
+      <c r="BZ7" s="26">
+        <v>40960.26</v>
+      </c>
+      <c r="CA7" s="26">
+        <v>17377.080000000002</v>
+      </c>
+      <c r="CB7" s="26">
         <v>48200.71</v>
       </c>
-      <c r="BD7" s="26">
-        <v>53786.2</v>
-      </c>
-      <c r="BF7" s="26">
-        <v>54820.55</v>
-      </c>
-      <c r="BG7" s="26">
-        <v>16963.34</v>
-      </c>
-      <c r="BI7" s="26">
-        <v>87919.75</v>
-      </c>
-      <c r="BJ7" s="26">
-        <v>81920.52</v>
-      </c>
-      <c r="BL7" s="26">
-        <v>27513.71</v>
-      </c>
-      <c r="BN7" s="26">
-        <v>40753.39</v>
-      </c>
-      <c r="BO7" s="26">
-        <v>104676.22</v>
-      </c>
-      <c r="BQ7" s="26">
-        <v>6206.1</v>
-      </c>
-      <c r="BR7" s="26">
-        <v>57302.99</v>
-      </c>
-      <c r="BT7" s="26">
-        <v>100952.56</v>
-      </c>
-      <c r="BU7" s="26">
-        <v>72818.240000000005</v>
-      </c>
-      <c r="BW7" s="26">
-        <v>39719.040000000001</v>
-      </c>
-      <c r="BX7" s="26">
-        <v>80679.3</v>
-      </c>
-      <c r="BY7" s="26">
-        <v>17790.82</v>
-      </c>
-      <c r="CA7" s="26">
+      <c r="CC7" s="26">
+        <v>17583.95</v>
+      </c>
+      <c r="CD7" s="26">
+        <v>27720.58</v>
+      </c>
+      <c r="CE7" s="26">
+        <v>66405.27</v>
+      </c>
+      <c r="CF7" s="26">
+        <v>33306.07</v>
+      </c>
+      <c r="CG7" s="26">
+        <v>29582.41</v>
+      </c>
+      <c r="CI7" s="26">
+        <v>22962.57</v>
+      </c>
+      <c r="CL7" s="26">
+        <v>31857.98</v>
+      </c>
+      <c r="CN7" s="26">
+        <v>90609.06</v>
+      </c>
+      <c r="CO7" s="26">
+        <v>34547.29</v>
+      </c>
+      <c r="CP7" s="26">
+        <v>50269.41</v>
+      </c>
+      <c r="CR7" s="26">
+        <v>44890.79</v>
+      </c>
+      <c r="CS7" s="26">
         <v>40960.26</v>
       </c>
-      <c r="CB7" s="26">
-        <v>17377.080000000002</v>
-      </c>
-      <c r="CC7" s="26">
-        <v>48200.71</v>
-      </c>
-      <c r="CD7" s="26">
-        <v>17583.95</v>
-      </c>
-      <c r="CE7" s="26">
-        <v>27720.58</v>
-      </c>
-      <c r="CF7" s="26">
-        <v>66405.27</v>
-      </c>
-      <c r="CG7" s="26">
-        <v>33306.07</v>
-      </c>
-      <c r="CI7" s="26">
-        <v>29582.41</v>
-      </c>
-      <c r="CK7" s="26">
-        <v>22962.57</v>
-      </c>
-      <c r="CN7" s="26">
-        <v>31857.98</v>
-      </c>
-      <c r="CP7" s="26">
-        <v>90609.06</v>
-      </c>
-      <c r="CQ7" s="26">
-        <v>34547.29</v>
-      </c>
-      <c r="CR7" s="26">
-        <v>50269.41</v>
-      </c>
       <c r="CT7" s="26">
-        <v>44890.79</v>
+        <v>67025.88</v>
       </c>
       <c r="CU7" s="26">
-        <v>40960.26</v>
+        <v>20893.87</v>
       </c>
       <c r="CV7" s="26">
-        <v>67025.88</v>
+        <v>85023.57</v>
       </c>
       <c r="CW7" s="26">
-        <v>20893.87</v>
-      </c>
-      <c r="CX7" s="26">
-        <v>85023.57</v>
-      </c>
-      <c r="CY7" s="26">
         <v>38684.69</v>
       </c>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>5</v>
       </c>
@@ -16603,185 +16569,185 @@
       <c r="Z11" s="26">
         <v>54406.81</v>
       </c>
-      <c r="AB11" s="26">
+      <c r="AA11" s="26">
         <v>62474.74</v>
       </c>
+      <c r="AC11" s="26">
+        <v>68267.100000000006</v>
+      </c>
       <c r="AD11" s="26">
-        <v>68267.100000000006</v>
+        <v>69508.320000000007</v>
       </c>
       <c r="AE11" s="26">
-        <v>69508.320000000007</v>
-      </c>
-      <c r="AF11" s="26">
         <v>56682.38</v>
       </c>
-      <c r="AH11" s="26">
+      <c r="AG11" s="26">
         <v>24410.66</v>
       </c>
+      <c r="AI11" s="26">
+        <v>107986.14</v>
+      </c>
       <c r="AJ11" s="26">
-        <v>107986.14</v>
+        <v>31030.5</v>
       </c>
       <c r="AK11" s="26">
-        <v>31030.5</v>
+        <v>7861.06</v>
       </c>
       <c r="AL11" s="26">
-        <v>7861.06</v>
+        <v>22135.09</v>
       </c>
       <c r="AM11" s="26">
-        <v>22135.09</v>
-      </c>
-      <c r="AN11" s="26">
         <v>70749.539999999994</v>
       </c>
+      <c r="AO11" s="26">
+        <v>93298.37</v>
+      </c>
       <c r="AP11" s="26">
-        <v>93298.37</v>
-      </c>
-      <c r="AQ11" s="26">
         <v>93918.98</v>
       </c>
+      <c r="AR11" s="26">
+        <v>75714.42</v>
+      </c>
       <c r="AS11" s="26">
-        <v>75714.42</v>
-      </c>
-      <c r="AT11" s="26">
         <v>72197.63</v>
       </c>
+      <c r="AU11" s="26">
+        <v>58751.08</v>
+      </c>
       <c r="AV11" s="26">
-        <v>58751.08</v>
+        <v>70542.67</v>
       </c>
       <c r="AW11" s="26">
-        <v>70542.67</v>
+        <v>70956.41</v>
       </c>
       <c r="AX11" s="26">
-        <v>70956.41</v>
-      </c>
-      <c r="AY11" s="26">
         <v>68060.23</v>
       </c>
-      <c r="BA11" s="26">
+      <c r="AZ11" s="26">
         <v>48821.32</v>
       </c>
+      <c r="BB11" s="26">
+        <v>70749.539999999994</v>
+      </c>
       <c r="BC11" s="26">
-        <v>70749.539999999994</v>
-      </c>
-      <c r="BD11" s="26">
         <v>74059.460000000006</v>
       </c>
+      <c r="BE11" s="26">
+        <v>71370.149999999994</v>
+      </c>
       <c r="BF11" s="26">
+        <v>60612.91</v>
+      </c>
+      <c r="BH11" s="26">
+        <v>73231.98</v>
+      </c>
+      <c r="BI11" s="26">
+        <v>53579.33</v>
+      </c>
+      <c r="BK11" s="26">
+        <v>34133.550000000003</v>
+      </c>
+      <c r="BM11" s="26">
+        <v>89160.97</v>
+      </c>
+      <c r="BN11" s="26">
+        <v>90402.19</v>
+      </c>
+      <c r="BP11" s="26">
+        <v>48407.58</v>
+      </c>
+      <c r="BQ11" s="26">
+        <v>109020.49</v>
+      </c>
+      <c r="BS11" s="26">
+        <v>86471.66</v>
+      </c>
+      <c r="BT11" s="26">
+        <v>52338.11</v>
+      </c>
+      <c r="BV11" s="26">
+        <v>81713.649999999994</v>
+      </c>
+      <c r="BW11" s="26">
+        <v>65991.53</v>
+      </c>
+      <c r="BX11" s="26">
+        <v>34754.160000000003</v>
+      </c>
+      <c r="BZ11" s="26">
+        <v>68473.97</v>
+      </c>
+      <c r="CA11" s="26">
+        <v>61233.52</v>
+      </c>
+      <c r="CB11" s="26">
+        <v>6826.71</v>
+      </c>
+      <c r="CC11" s="26">
+        <v>35374.769999999997</v>
+      </c>
+      <c r="CD11" s="26">
+        <v>42408.35</v>
+      </c>
+      <c r="CE11" s="26">
+        <v>63509.09</v>
+      </c>
+      <c r="CF11" s="26">
+        <v>72818.240000000005</v>
+      </c>
+      <c r="CG11" s="26">
+        <v>29168.67</v>
+      </c>
+      <c r="CI11" s="26">
+        <v>55441.16</v>
+      </c>
+      <c r="CL11" s="26">
+        <v>19032.04</v>
+      </c>
+      <c r="CN11" s="26">
+        <v>60199.17</v>
+      </c>
+      <c r="CO11" s="26">
+        <v>23376.31</v>
+      </c>
+      <c r="CP11" s="26">
         <v>71370.149999999994</v>
       </c>
-      <c r="BG11" s="26">
-        <v>60612.91</v>
-      </c>
-      <c r="BI11" s="26">
-        <v>73231.98</v>
-      </c>
-      <c r="BJ11" s="26">
-        <v>53579.33</v>
-      </c>
-      <c r="BL11" s="26">
-        <v>34133.550000000003</v>
-      </c>
-      <c r="BN11" s="26">
-        <v>89160.97</v>
-      </c>
-      <c r="BO11" s="26">
-        <v>90402.19</v>
-      </c>
-      <c r="BQ11" s="26">
-        <v>48407.58</v>
-      </c>
-      <c r="BR11" s="26">
-        <v>109020.49</v>
-      </c>
-      <c r="BT11" s="26">
-        <v>86471.66</v>
-      </c>
-      <c r="BU11" s="26">
-        <v>52338.11</v>
-      </c>
-      <c r="BW11" s="26">
-        <v>81713.649999999994</v>
-      </c>
-      <c r="BX11" s="26">
-        <v>65991.53</v>
-      </c>
-      <c r="BY11" s="26">
-        <v>34754.160000000003</v>
-      </c>
-      <c r="CA11" s="26">
-        <v>68473.97</v>
-      </c>
-      <c r="CB11" s="26">
-        <v>61233.52</v>
-      </c>
-      <c r="CC11" s="26">
-        <v>6826.71</v>
-      </c>
-      <c r="CD11" s="26">
-        <v>35374.769999999997</v>
-      </c>
-      <c r="CE11" s="26">
-        <v>42408.35</v>
-      </c>
-      <c r="CF11" s="26">
-        <v>63509.09</v>
-      </c>
-      <c r="CG11" s="26">
-        <v>72818.240000000005</v>
-      </c>
-      <c r="CI11" s="26">
-        <v>29168.67</v>
-      </c>
-      <c r="CK11" s="26">
+      <c r="CR11" s="26">
+        <v>92057.15</v>
+      </c>
+      <c r="CS11" s="26">
+        <v>92057.15</v>
+      </c>
+      <c r="CT11" s="26">
+        <v>83161.740000000005</v>
+      </c>
+      <c r="CU11" s="26">
+        <v>33512.94</v>
+      </c>
+      <c r="CV11" s="26">
         <v>55441.16</v>
       </c>
-      <c r="CN11" s="26">
-        <v>19032.04</v>
-      </c>
-      <c r="CP11" s="26">
-        <v>60199.17</v>
-      </c>
-      <c r="CQ11" s="26">
-        <v>23376.31</v>
-      </c>
-      <c r="CR11" s="26">
-        <v>71370.149999999994</v>
-      </c>
-      <c r="CT11" s="26">
-        <v>92057.15</v>
-      </c>
-      <c r="CU11" s="26">
-        <v>92057.15</v>
-      </c>
-      <c r="CV11" s="26">
-        <v>83161.740000000005</v>
-      </c>
       <c r="CW11" s="26">
-        <v>33512.94</v>
-      </c>
-      <c r="CX11" s="26">
-        <v>55441.16</v>
-      </c>
-      <c r="CY11" s="26">
         <v>13239.68</v>
       </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>7</v>
       </c>
@@ -16794,52 +16760,52 @@
       <c r="K15" s="26">
         <v>1976587.8</v>
       </c>
-      <c r="AC15" s="26">
+      <c r="AB15" s="26">
         <v>3835034.72</v>
       </c>
-      <c r="AO15" s="26">
+      <c r="AN15" s="26">
         <v>2017482.72</v>
       </c>
-      <c r="AR15" s="26">
+      <c r="AQ15" s="26">
         <v>2158343</v>
       </c>
-      <c r="AU15" s="26">
+      <c r="AT15" s="26">
         <v>2335554.3199999998</v>
       </c>
-      <c r="BE15" s="26">
+      <c r="BD15" s="26">
         <v>2685433.08</v>
       </c>
-      <c r="BV15" s="26">
+      <c r="BU15" s="26">
         <v>3448804.92</v>
       </c>
+      <c r="CH15" s="26">
+        <v>2435519.6800000002</v>
+      </c>
       <c r="CJ15" s="26">
-        <v>2435519.6800000002</v>
-      </c>
-      <c r="CL15" s="26">
         <v>3021680.2</v>
       </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>6</v>
       </c>
@@ -16855,72 +16821,72 @@
       <c r="O20" s="26">
         <v>2026570.48</v>
       </c>
-      <c r="AC20" s="26">
+      <c r="AB20" s="26">
         <v>5861605.2000000002</v>
       </c>
-      <c r="AO20" s="26">
+      <c r="AN20" s="26">
         <v>4044053.2</v>
       </c>
-      <c r="AR20" s="26">
+      <c r="AQ20" s="26">
         <v>4184913.48</v>
       </c>
-      <c r="AU20" s="26">
+      <c r="AT20" s="26">
         <v>4362124.8</v>
       </c>
-      <c r="BE20" s="26">
+      <c r="BD20" s="26">
         <v>4712003.5599999996</v>
       </c>
-      <c r="BV20" s="26">
+      <c r="BU20" s="26">
         <v>5475375.4000000004</v>
       </c>
+      <c r="CH20" s="26">
+        <v>4462090.16</v>
+      </c>
       <c r="CJ20" s="26">
-        <v>4462090.16</v>
-      </c>
-      <c r="CL20" s="26">
         <v>5048250.68</v>
       </c>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:103" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>8</v>
       </c>
@@ -16972,225 +16938,225 @@
       <c r="Z29" s="26">
         <v>40132.78</v>
       </c>
-      <c r="AB29" s="26">
+      <c r="AA29" s="26">
         <v>38477.82</v>
       </c>
+      <c r="AC29" s="26">
+        <v>60406.04</v>
+      </c>
       <c r="AD29" s="26">
+        <v>53165.59</v>
+      </c>
+      <c r="AE29" s="26">
+        <v>104055.61</v>
+      </c>
+      <c r="AG29" s="26">
+        <v>70749.539999999994</v>
+      </c>
+      <c r="AI29" s="26">
+        <v>11584.72</v>
+      </c>
+      <c r="AJ29" s="26">
+        <v>63095.35</v>
+      </c>
+      <c r="AK29" s="26">
+        <v>92264.02</v>
+      </c>
+      <c r="AL29" s="26">
+        <v>76335.03</v>
+      </c>
+      <c r="AM29" s="26">
+        <v>33512.94</v>
+      </c>
+      <c r="AO29" s="26">
+        <v>14067.16</v>
+      </c>
+      <c r="AP29" s="26">
+        <v>21721.35</v>
+      </c>
+      <c r="AR29" s="26">
+        <v>51924.37</v>
+      </c>
+      <c r="AS29" s="26">
+        <v>40960.26</v>
+      </c>
+      <c r="AU29" s="26">
+        <v>91022.8</v>
+      </c>
+      <c r="AV29" s="26">
+        <v>29168.67</v>
+      </c>
+      <c r="AW29" s="26">
+        <v>26686.23</v>
+      </c>
+      <c r="AX29" s="26">
+        <v>30203.02</v>
+      </c>
+      <c r="AZ29" s="26">
+        <v>46545.75</v>
+      </c>
+      <c r="BB29" s="26">
+        <v>34340.42</v>
+      </c>
+      <c r="BC29" s="26">
+        <v>40546.519999999997</v>
+      </c>
+      <c r="BE29" s="26">
+        <v>47373.23</v>
+      </c>
+      <c r="BF29" s="26">
+        <v>33099.199999999997</v>
+      </c>
+      <c r="BH29" s="26">
+        <v>104469.35</v>
+      </c>
+      <c r="BI29" s="26">
+        <v>99504.47</v>
+      </c>
+      <c r="BK29" s="26">
+        <v>59578.559999999998</v>
+      </c>
+      <c r="BM29" s="26">
+        <v>9516.02</v>
+      </c>
+      <c r="BN29" s="26">
+        <v>68267.100000000006</v>
+      </c>
+      <c r="BP29" s="26">
+        <v>51924.37</v>
+      </c>
+      <c r="BQ29" s="26">
+        <v>21100.74</v>
+      </c>
+      <c r="BS29" s="26">
+        <v>72197.63</v>
+      </c>
+      <c r="BT29" s="26">
+        <v>90195.32</v>
+      </c>
+      <c r="BV29" s="26">
+        <v>17790.82</v>
+      </c>
+      <c r="BW29" s="26">
+        <v>96608.29</v>
+      </c>
+      <c r="BX29" s="26">
+        <v>60199.17</v>
+      </c>
+      <c r="BZ29" s="26">
+        <v>29375.54</v>
+      </c>
+      <c r="CA29" s="26">
+        <v>32271.72</v>
+      </c>
+      <c r="CB29" s="26">
+        <v>87299.14</v>
+      </c>
+      <c r="CC29" s="26">
+        <v>62061</v>
+      </c>
+      <c r="CD29" s="26">
+        <v>53165.59</v>
+      </c>
+      <c r="CE29" s="26">
+        <v>72818.240000000005</v>
+      </c>
+      <c r="CF29" s="26">
+        <v>21721.35</v>
+      </c>
+      <c r="CG29" s="26">
+        <v>64543.44</v>
+      </c>
+      <c r="CI29" s="26">
+        <v>37236.6</v>
+      </c>
+      <c r="CL29" s="26">
+        <v>76128.160000000003</v>
+      </c>
+      <c r="CN29" s="26">
+        <v>107986.14</v>
+      </c>
+      <c r="CO29" s="26">
+        <v>70956.41</v>
+      </c>
+      <c r="CP29" s="26">
+        <v>36615.99</v>
+      </c>
+      <c r="CR29" s="26">
+        <v>3930.53</v>
+      </c>
+      <c r="CS29" s="26">
+        <v>19652.650000000001</v>
+      </c>
+      <c r="CT29" s="26">
+        <v>59992.3</v>
+      </c>
+      <c r="CU29" s="26">
         <v>60406.04</v>
       </c>
-      <c r="AE29" s="26">
-        <v>53165.59</v>
-      </c>
-      <c r="AF29" s="26">
-        <v>104055.61</v>
-      </c>
-      <c r="AH29" s="26">
-        <v>70749.539999999994</v>
-      </c>
-      <c r="AJ29" s="26">
-        <v>11584.72</v>
-      </c>
-      <c r="AK29" s="26">
-        <v>63095.35</v>
-      </c>
-      <c r="AL29" s="26">
-        <v>92264.02</v>
-      </c>
-      <c r="AM29" s="26">
-        <v>76335.03</v>
-      </c>
-      <c r="AN29" s="26">
-        <v>33512.94</v>
-      </c>
-      <c r="AP29" s="26">
-        <v>14067.16</v>
-      </c>
-      <c r="AQ29" s="26">
-        <v>21721.35</v>
-      </c>
-      <c r="AS29" s="26">
-        <v>51924.37</v>
-      </c>
-      <c r="AT29" s="26">
-        <v>40960.26</v>
-      </c>
-      <c r="AV29" s="26">
-        <v>91022.8</v>
-      </c>
-      <c r="AW29" s="26">
-        <v>29168.67</v>
-      </c>
-      <c r="AX29" s="26">
-        <v>26686.23</v>
-      </c>
-      <c r="AY29" s="26">
-        <v>30203.02</v>
-      </c>
-      <c r="BA29" s="26">
-        <v>46545.75</v>
-      </c>
-      <c r="BC29" s="26">
-        <v>34340.42</v>
-      </c>
-      <c r="BD29" s="26">
-        <v>40546.519999999997</v>
-      </c>
-      <c r="BF29" s="26">
-        <v>47373.23</v>
-      </c>
-      <c r="BG29" s="26">
-        <v>33099.199999999997</v>
-      </c>
-      <c r="BI29" s="26">
-        <v>104469.35</v>
-      </c>
-      <c r="BJ29" s="26">
-        <v>99504.47</v>
-      </c>
-      <c r="BL29" s="26">
-        <v>59578.559999999998</v>
-      </c>
-      <c r="BN29" s="26">
-        <v>9516.02</v>
-      </c>
-      <c r="BO29" s="26">
-        <v>68267.100000000006</v>
-      </c>
-      <c r="BQ29" s="26">
-        <v>51924.37</v>
-      </c>
-      <c r="BR29" s="26">
-        <v>21100.74</v>
-      </c>
-      <c r="BT29" s="26">
-        <v>72197.63</v>
-      </c>
-      <c r="BU29" s="26">
-        <v>90195.32</v>
-      </c>
-      <c r="BW29" s="26">
-        <v>17790.82</v>
-      </c>
-      <c r="BX29" s="26">
-        <v>96608.29</v>
-      </c>
-      <c r="BY29" s="26">
-        <v>60199.17</v>
-      </c>
-      <c r="CA29" s="26">
-        <v>29375.54</v>
-      </c>
-      <c r="CB29" s="26">
-        <v>32271.72</v>
-      </c>
-      <c r="CC29" s="26">
-        <v>87299.14</v>
-      </c>
-      <c r="CD29" s="26">
-        <v>62061</v>
-      </c>
-      <c r="CE29" s="26">
-        <v>53165.59</v>
-      </c>
-      <c r="CF29" s="26">
-        <v>72818.240000000005</v>
-      </c>
-      <c r="CG29" s="26">
-        <v>21721.35</v>
-      </c>
-      <c r="CI29" s="26">
-        <v>64543.44</v>
-      </c>
-      <c r="CK29" s="26">
-        <v>37236.6</v>
-      </c>
-      <c r="CN29" s="26">
-        <v>76128.160000000003</v>
-      </c>
-      <c r="CP29" s="26">
-        <v>107986.14</v>
-      </c>
-      <c r="CQ29" s="26">
-        <v>70956.41</v>
-      </c>
-      <c r="CR29" s="26">
-        <v>36615.99</v>
-      </c>
-      <c r="CT29" s="26">
-        <v>3930.53</v>
-      </c>
-      <c r="CU29" s="26">
-        <v>19652.650000000001</v>
-      </c>
       <c r="CV29" s="26">
-        <v>59992.3</v>
+        <v>102400.65</v>
       </c>
       <c r="CW29" s="26">
-        <v>60406.04</v>
-      </c>
-      <c r="CX29" s="26">
-        <v>102400.65</v>
-      </c>
-      <c r="CY29" s="26">
         <v>81506.78</v>
       </c>
     </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>2</v>
       </c>
@@ -17242,180 +17208,180 @@
       <c r="Z41" s="26">
         <v>72611.37</v>
       </c>
-      <c r="AB41" s="26">
+      <c r="AA41" s="26">
         <v>84402.96</v>
       </c>
+      <c r="AC41" s="26">
+        <v>40753.39</v>
+      </c>
       <c r="AD41" s="26">
-        <v>40753.39</v>
+        <v>46338.879999999997</v>
       </c>
       <c r="AE41" s="26">
-        <v>46338.879999999997</v>
-      </c>
-      <c r="AF41" s="26">
         <v>7240.45</v>
       </c>
-      <c r="AH41" s="26">
+      <c r="AG41" s="26">
         <v>48407.58</v>
       </c>
+      <c r="AI41" s="26">
+        <v>102400.65</v>
+      </c>
       <c r="AJ41" s="26">
-        <v>102400.65</v>
+        <v>62267.87</v>
       </c>
       <c r="AK41" s="26">
-        <v>62267.87</v>
+        <v>54199.94</v>
       </c>
       <c r="AL41" s="26">
-        <v>54199.94</v>
+        <v>68887.710000000006</v>
       </c>
       <c r="AM41" s="26">
-        <v>68887.710000000006</v>
-      </c>
-      <c r="AN41" s="26">
         <v>62681.61</v>
       </c>
+      <c r="AO41" s="26">
+        <v>83368.61</v>
+      </c>
       <c r="AP41" s="26">
-        <v>83368.61</v>
-      </c>
-      <c r="AQ41" s="26">
         <v>112330.41</v>
       </c>
+      <c r="AR41" s="26">
+        <v>56061.77</v>
+      </c>
       <c r="AS41" s="26">
-        <v>56061.77</v>
-      </c>
-      <c r="AT41" s="26">
         <v>57302.99</v>
       </c>
+      <c r="AU41" s="26">
+        <v>16135.86</v>
+      </c>
       <c r="AV41" s="26">
-        <v>16135.86</v>
+        <v>67232.75</v>
       </c>
       <c r="AW41" s="26">
+        <v>72404.5</v>
+      </c>
+      <c r="AX41" s="26">
+        <v>68473.97</v>
+      </c>
+      <c r="AZ41" s="26">
+        <v>73645.72</v>
+      </c>
+      <c r="BB41" s="26">
+        <v>62061</v>
+      </c>
+      <c r="BC41" s="26">
+        <v>58337.34</v>
+      </c>
+      <c r="BE41" s="26">
+        <v>51717.5</v>
+      </c>
+      <c r="BF41" s="26">
+        <v>76128.160000000003</v>
+      </c>
+      <c r="BH41" s="26">
+        <v>27513.71</v>
+      </c>
+      <c r="BI41" s="26">
+        <v>2896.18</v>
+      </c>
+      <c r="BK41" s="26">
+        <v>50476.28</v>
+      </c>
+      <c r="BM41" s="26">
+        <v>100745.69</v>
+      </c>
+      <c r="BN41" s="26">
+        <v>44477.05</v>
+      </c>
+      <c r="BP41" s="26">
+        <v>75714.42</v>
+      </c>
+      <c r="BQ41" s="26">
+        <v>113571.63</v>
+      </c>
+      <c r="BS41" s="26">
+        <v>40339.65</v>
+      </c>
+      <c r="BT41" s="26">
+        <v>9309.15</v>
+      </c>
+      <c r="BV41" s="26">
+        <v>80472.429999999993</v>
+      </c>
+      <c r="BW41" s="26">
+        <v>24203.79</v>
+      </c>
+      <c r="BX41" s="26">
+        <v>65164.05</v>
+      </c>
+      <c r="BZ41" s="26">
+        <v>67439.62</v>
+      </c>
+      <c r="CA41" s="26">
+        <v>76335.03</v>
+      </c>
+      <c r="CB41" s="26">
+        <v>49855.67</v>
+      </c>
+      <c r="CC41" s="26">
         <v>67232.75</v>
       </c>
-      <c r="AX41" s="26">
-        <v>72404.5</v>
-      </c>
-      <c r="AY41" s="26">
-        <v>68473.97</v>
-      </c>
-      <c r="BA41" s="26">
-        <v>73645.72</v>
-      </c>
-      <c r="BC41" s="26">
-        <v>62061</v>
-      </c>
-      <c r="BD41" s="26">
-        <v>58337.34</v>
-      </c>
-      <c r="BF41" s="26">
-        <v>51717.5</v>
-      </c>
-      <c r="BG41" s="26">
-        <v>76128.160000000003</v>
-      </c>
-      <c r="BI41" s="26">
-        <v>27513.71</v>
-      </c>
-      <c r="BJ41" s="26">
-        <v>2896.18</v>
-      </c>
-      <c r="BL41" s="26">
-        <v>50476.28</v>
-      </c>
-      <c r="BN41" s="26">
-        <v>100745.69</v>
-      </c>
-      <c r="BO41" s="26">
-        <v>44477.05</v>
-      </c>
-      <c r="BQ41" s="26">
-        <v>75714.42</v>
-      </c>
-      <c r="BR41" s="26">
-        <v>113571.63</v>
-      </c>
-      <c r="BT41" s="26">
-        <v>40339.65</v>
-      </c>
-      <c r="BU41" s="26">
-        <v>9309.15</v>
-      </c>
-      <c r="BW41" s="26">
-        <v>80472.429999999993</v>
-      </c>
-      <c r="BX41" s="26">
-        <v>24203.79</v>
-      </c>
-      <c r="BY41" s="26">
-        <v>65164.05</v>
-      </c>
-      <c r="CA41" s="26">
-        <v>67439.62</v>
-      </c>
-      <c r="CB41" s="26">
-        <v>76335.03</v>
-      </c>
-      <c r="CC41" s="26">
-        <v>49855.67</v>
-      </c>
       <c r="CD41" s="26">
-        <v>67232.75</v>
+        <v>50683.15</v>
       </c>
       <c r="CE41" s="26">
-        <v>50683.15</v>
+        <v>31237.37</v>
       </c>
       <c r="CF41" s="26">
-        <v>31237.37</v>
+        <v>76541.899999999994</v>
       </c>
       <c r="CG41" s="26">
-        <v>76541.899999999994</v>
+        <v>50269.41</v>
       </c>
       <c r="CI41" s="26">
-        <v>50269.41</v>
-      </c>
-      <c r="CK41" s="26">
         <v>69715.19</v>
       </c>
+      <c r="CL41" s="26">
+        <v>65784.66</v>
+      </c>
       <c r="CN41" s="26">
-        <v>65784.66</v>
+        <v>11377.85</v>
+      </c>
+      <c r="CO41" s="26">
+        <v>49441.93</v>
       </c>
       <c r="CP41" s="26">
-        <v>11377.85</v>
-      </c>
-      <c r="CQ41" s="26">
-        <v>49441.93</v>
+        <v>60406.04</v>
       </c>
       <c r="CR41" s="26">
-        <v>60406.04</v>
+        <v>97849.51</v>
+      </c>
+      <c r="CS41" s="26">
+        <v>110468.58</v>
       </c>
       <c r="CT41" s="26">
-        <v>97849.51</v>
+        <v>52544.98</v>
       </c>
       <c r="CU41" s="26">
-        <v>110468.58</v>
+        <v>62474.74</v>
       </c>
       <c r="CV41" s="26">
-        <v>52544.98</v>
+        <v>5999.23</v>
       </c>
       <c r="CW41" s="26">
-        <v>62474.74</v>
-      </c>
-      <c r="CX41" s="26">
-        <v>5999.23</v>
-      </c>
-      <c r="CY41" s="26">
         <v>61233.52</v>
       </c>
     </row>
-    <row r="42" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>3</v>
       </c>
@@ -17467,180 +17433,180 @@
       <c r="Z44" s="26">
         <v>45304.53</v>
       </c>
-      <c r="AB44" s="26">
+      <c r="AA44" s="26">
         <v>52131.24</v>
       </c>
+      <c r="AC44" s="26">
+        <v>63509.09</v>
+      </c>
       <c r="AD44" s="26">
-        <v>63509.09</v>
+        <v>63302.22</v>
       </c>
       <c r="AE44" s="26">
+        <v>67025.88</v>
+      </c>
+      <c r="AG44" s="26">
+        <v>16756.47</v>
+      </c>
+      <c r="AI44" s="26">
+        <v>106538.05</v>
+      </c>
+      <c r="AJ44" s="26">
+        <v>21721.35</v>
+      </c>
+      <c r="AK44" s="26">
+        <v>8481.67</v>
+      </c>
+      <c r="AL44" s="26">
+        <v>13653.42</v>
+      </c>
+      <c r="AM44" s="26">
+        <v>67439.62</v>
+      </c>
+      <c r="AO44" s="26">
+        <v>76128.160000000003</v>
+      </c>
+      <c r="AP44" s="26">
+        <v>84196.09</v>
+      </c>
+      <c r="AR44" s="26">
+        <v>68887.710000000006</v>
+      </c>
+      <c r="AS44" s="26">
+        <v>65370.92</v>
+      </c>
+      <c r="AU44" s="26">
+        <v>58957.95</v>
+      </c>
+      <c r="AV44" s="26">
+        <v>63922.83</v>
+      </c>
+      <c r="AW44" s="26">
         <v>63302.22</v>
       </c>
-      <c r="AF44" s="26">
+      <c r="AX44" s="26">
+        <v>60199.17</v>
+      </c>
+      <c r="AZ44" s="26">
+        <v>40132.78</v>
+      </c>
+      <c r="BB44" s="26">
+        <v>66819.009999999995</v>
+      </c>
+      <c r="BC44" s="26">
         <v>67025.88</v>
       </c>
-      <c r="AH44" s="26">
-        <v>16756.47</v>
-      </c>
-      <c r="AJ44" s="26">
-        <v>106538.05</v>
-      </c>
-      <c r="AK44" s="26">
-        <v>21721.35</v>
-      </c>
-      <c r="AL44" s="26">
-        <v>8481.67</v>
-      </c>
-      <c r="AM44" s="26">
-        <v>13653.42</v>
-      </c>
-      <c r="AN44" s="26">
-        <v>67439.62</v>
-      </c>
-      <c r="AP44" s="26">
-        <v>76128.160000000003</v>
-      </c>
-      <c r="AQ44" s="26">
-        <v>84196.09</v>
-      </c>
-      <c r="AS44" s="26">
-        <v>68887.710000000006</v>
-      </c>
-      <c r="AT44" s="26">
-        <v>65370.92</v>
-      </c>
-      <c r="AV44" s="26">
-        <v>58957.95</v>
-      </c>
-      <c r="AW44" s="26">
-        <v>63922.83</v>
-      </c>
-      <c r="AX44" s="26">
-        <v>63302.22</v>
-      </c>
-      <c r="AY44" s="26">
-        <v>60199.17</v>
-      </c>
-      <c r="BA44" s="26">
-        <v>40132.78</v>
-      </c>
-      <c r="BC44" s="26">
-        <v>66819.009999999995</v>
-      </c>
-      <c r="BD44" s="26">
-        <v>67025.88</v>
+      <c r="BE44" s="26">
+        <v>64543.44</v>
       </c>
       <c r="BF44" s="26">
-        <v>64543.44</v>
-      </c>
-      <c r="BG44" s="26">
         <v>51924.37</v>
       </c>
+      <c r="BH44" s="26">
+        <v>71990.759999999995</v>
+      </c>
       <c r="BI44" s="26">
-        <v>71990.759999999995</v>
-      </c>
-      <c r="BJ44" s="26">
         <v>62267.87</v>
       </c>
-      <c r="BL44" s="26">
+      <c r="BK44" s="26">
         <v>26479.360000000001</v>
       </c>
+      <c r="BM44" s="26">
+        <v>79851.820000000007</v>
+      </c>
       <c r="BN44" s="26">
-        <v>79851.820000000007</v>
-      </c>
-      <c r="BO44" s="26">
         <v>85023.57</v>
       </c>
+      <c r="BP44" s="26">
+        <v>37443.47</v>
+      </c>
       <c r="BQ44" s="26">
-        <v>37443.47</v>
-      </c>
-      <c r="BR44" s="26">
         <v>99504.47</v>
       </c>
+      <c r="BS44" s="26">
+        <v>84816.7</v>
+      </c>
       <c r="BT44" s="26">
-        <v>84816.7</v>
-      </c>
-      <c r="BU44" s="26">
         <v>52958.720000000001</v>
       </c>
+      <c r="BV44" s="26">
+        <v>74266.33</v>
+      </c>
       <c r="BW44" s="26">
-        <v>74266.33</v>
+        <v>64957.18</v>
       </c>
       <c r="BX44" s="26">
-        <v>64957.18</v>
-      </c>
-      <c r="BY44" s="26">
         <v>25238.14</v>
       </c>
+      <c r="BZ44" s="26">
+        <v>61647.26</v>
+      </c>
       <c r="CA44" s="26">
-        <v>61647.26</v>
+        <v>52544.98</v>
       </c>
       <c r="CB44" s="26">
-        <v>52544.98</v>
+        <v>7861.06</v>
       </c>
       <c r="CC44" s="26">
-        <v>7861.06</v>
+        <v>25031.27</v>
       </c>
       <c r="CD44" s="26">
-        <v>25031.27</v>
+        <v>34961.03</v>
       </c>
       <c r="CE44" s="26">
-        <v>34961.03</v>
+        <v>60406.04</v>
       </c>
       <c r="CF44" s="26">
-        <v>60406.04</v>
+        <v>66198.399999999994</v>
       </c>
       <c r="CG44" s="26">
-        <v>66198.399999999994</v>
+        <v>21514.48</v>
       </c>
       <c r="CI44" s="26">
-        <v>21514.48</v>
-      </c>
-      <c r="CK44" s="26">
         <v>47993.84</v>
       </c>
+      <c r="CL44" s="26">
+        <v>10757.24</v>
+      </c>
       <c r="CN44" s="26">
-        <v>10757.24</v>
+        <v>70956.41</v>
+      </c>
+      <c r="CO44" s="26">
+        <v>15515.25</v>
       </c>
       <c r="CP44" s="26">
-        <v>70956.41</v>
-      </c>
-      <c r="CQ44" s="26">
-        <v>15515.25</v>
+        <v>65991.53</v>
       </c>
       <c r="CR44" s="26">
-        <v>65991.53</v>
+        <v>83575.48</v>
+      </c>
+      <c r="CS44" s="26">
+        <v>82748</v>
       </c>
       <c r="CT44" s="26">
-        <v>83575.48</v>
+        <v>76748.77</v>
       </c>
       <c r="CU44" s="26">
-        <v>82748</v>
+        <v>23790.05</v>
       </c>
       <c r="CV44" s="26">
-        <v>76748.77</v>
+        <v>65577.789999999994</v>
       </c>
       <c r="CW44" s="26">
-        <v>23790.05</v>
-      </c>
-      <c r="CX44" s="26">
-        <v>65577.789999999994</v>
-      </c>
-      <c r="CY44" s="26">
         <v>4758.01</v>
       </c>
     </row>
-    <row r="45" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>0</v>
       </c>
@@ -17692,215 +17658,215 @@
       <c r="Z47" s="26">
         <v>74680.070000000007</v>
       </c>
-      <c r="AB47" s="26">
+      <c r="AA47" s="26">
         <v>91229.67</v>
       </c>
+      <c r="AC47" s="26">
+        <v>38684.69</v>
+      </c>
       <c r="AD47" s="26">
-        <v>38684.69</v>
+        <v>44270.18</v>
       </c>
       <c r="AE47" s="26">
-        <v>44270.18</v>
-      </c>
-      <c r="AF47" s="26">
         <v>21721.35</v>
       </c>
-      <c r="AH47" s="26">
+      <c r="AG47" s="26">
         <v>55234.29</v>
       </c>
+      <c r="AI47" s="26">
+        <v>105710.57</v>
+      </c>
       <c r="AJ47" s="26">
-        <v>105710.57</v>
+        <v>72818.240000000005</v>
       </c>
       <c r="AK47" s="26">
-        <v>72818.240000000005</v>
+        <v>64957.18</v>
       </c>
       <c r="AL47" s="26">
-        <v>64957.18</v>
+        <v>67853.36</v>
       </c>
       <c r="AM47" s="26">
+        <v>62267.87</v>
+      </c>
+      <c r="AO47" s="26">
+        <v>91022.8</v>
+      </c>
+      <c r="AP47" s="26">
+        <v>103641.87</v>
+      </c>
+      <c r="AR47" s="26">
+        <v>51924.37</v>
+      </c>
+      <c r="AS47" s="26">
+        <v>55648.03</v>
+      </c>
+      <c r="AU47" s="26">
+        <v>5999.23</v>
+      </c>
+      <c r="AV47" s="26">
+        <v>66612.14</v>
+      </c>
+      <c r="AW47" s="26">
+        <v>72611.37</v>
+      </c>
+      <c r="AX47" s="26">
+        <v>69301.45</v>
+      </c>
+      <c r="AZ47" s="26">
+        <v>77576.25</v>
+      </c>
+      <c r="BB47" s="26">
+        <v>61233.52</v>
+      </c>
+      <c r="BC47" s="26">
+        <v>56889.25</v>
+      </c>
+      <c r="BE47" s="26">
+        <v>49855.67</v>
+      </c>
+      <c r="BF47" s="26">
+        <v>77369.38</v>
+      </c>
+      <c r="BH47" s="26">
+        <v>19238.91</v>
+      </c>
+      <c r="BI47" s="26">
+        <v>16963.34</v>
+      </c>
+      <c r="BK47" s="26">
+        <v>53993.07</v>
+      </c>
+      <c r="BM47" s="26">
+        <v>96401.42</v>
+      </c>
+      <c r="BN47" s="26">
+        <v>36409.120000000003</v>
+      </c>
+      <c r="BP47" s="26">
+        <v>87919.75</v>
+      </c>
+      <c r="BQ47" s="26">
+        <v>116674.68</v>
+      </c>
+      <c r="BS47" s="26">
+        <v>32064.85</v>
+      </c>
+      <c r="BT47" s="26">
+        <v>8895.41</v>
+      </c>
+      <c r="BV47" s="26">
+        <v>86471.66</v>
+      </c>
+      <c r="BW47" s="26">
+        <v>11584.72</v>
+      </c>
+      <c r="BX47" s="26">
+        <v>73025.11</v>
+      </c>
+      <c r="BZ47" s="26">
         <v>67853.36</v>
       </c>
-      <c r="AN47" s="26">
-        <v>62267.87</v>
-      </c>
-      <c r="AP47" s="26">
-        <v>91022.8</v>
-      </c>
-      <c r="AQ47" s="26">
-        <v>103641.87</v>
-      </c>
-      <c r="AS47" s="26">
-        <v>51924.37</v>
-      </c>
-      <c r="AT47" s="26">
-        <v>55648.03</v>
-      </c>
-      <c r="AV47" s="26">
-        <v>5999.23</v>
-      </c>
-      <c r="AW47" s="26">
-        <v>66612.14</v>
-      </c>
-      <c r="AX47" s="26">
-        <v>72611.37</v>
-      </c>
-      <c r="AY47" s="26">
-        <v>69301.45</v>
-      </c>
-      <c r="BA47" s="26">
-        <v>77576.25</v>
-      </c>
-      <c r="BC47" s="26">
-        <v>61233.52</v>
-      </c>
-      <c r="BD47" s="26">
-        <v>56889.25</v>
-      </c>
-      <c r="BF47" s="26">
-        <v>49855.67</v>
-      </c>
-      <c r="BG47" s="26">
-        <v>77369.38</v>
-      </c>
-      <c r="BI47" s="26">
-        <v>19238.91</v>
-      </c>
-      <c r="BJ47" s="26">
-        <v>16963.34</v>
-      </c>
-      <c r="BL47" s="26">
-        <v>53993.07</v>
-      </c>
-      <c r="BN47" s="26">
-        <v>96401.42</v>
-      </c>
-      <c r="BO47" s="26">
-        <v>36409.120000000003</v>
-      </c>
-      <c r="BQ47" s="26">
-        <v>87919.75</v>
-      </c>
-      <c r="BR47" s="26">
-        <v>116674.68</v>
-      </c>
-      <c r="BT47" s="26">
-        <v>32064.85</v>
-      </c>
-      <c r="BU47" s="26">
-        <v>8895.41</v>
-      </c>
-      <c r="BW47" s="26">
-        <v>86471.66</v>
-      </c>
-      <c r="BX47" s="26">
-        <v>11584.72</v>
-      </c>
-      <c r="BY47" s="26">
-        <v>73025.11</v>
-      </c>
       <c r="CA47" s="26">
-        <v>67853.36</v>
+        <v>77989.990000000005</v>
       </c>
       <c r="CB47" s="26">
-        <v>77989.990000000005</v>
+        <v>61440.39</v>
       </c>
       <c r="CC47" s="26">
-        <v>61440.39</v>
+        <v>75714.42</v>
       </c>
       <c r="CD47" s="26">
+        <v>54199.94</v>
+      </c>
+      <c r="CE47" s="26">
+        <v>30203.02</v>
+      </c>
+      <c r="CF47" s="26">
         <v>75714.42</v>
       </c>
-      <c r="CE47" s="26">
-        <v>54199.94</v>
-      </c>
-      <c r="CF47" s="26">
-        <v>30203.02</v>
-      </c>
       <c r="CG47" s="26">
-        <v>75714.42</v>
+        <v>61026.65</v>
       </c>
       <c r="CI47" s="26">
-        <v>61026.65</v>
-      </c>
-      <c r="CK47" s="26">
         <v>70956.41</v>
       </c>
+      <c r="CL47" s="26">
+        <v>65577.789999999994</v>
+      </c>
       <c r="CN47" s="26">
-        <v>65577.789999999994</v>
+        <v>25651.88</v>
+      </c>
+      <c r="CO47" s="26">
+        <v>56268.639999999999</v>
       </c>
       <c r="CP47" s="26">
-        <v>25651.88</v>
-      </c>
-      <c r="CQ47" s="26">
-        <v>56268.639999999999</v>
+        <v>58957.95</v>
       </c>
       <c r="CR47" s="26">
-        <v>58957.95</v>
+        <v>97228.9</v>
+      </c>
+      <c r="CS47" s="26">
+        <v>101986.91</v>
       </c>
       <c r="CT47" s="26">
-        <v>97228.9</v>
+        <v>43856.44</v>
       </c>
       <c r="CU47" s="26">
-        <v>101986.91</v>
+        <v>68680.84</v>
       </c>
       <c r="CV47" s="26">
-        <v>43856.44</v>
+        <v>20066.39</v>
       </c>
       <c r="CW47" s="26">
-        <v>68680.84</v>
-      </c>
-      <c r="CX47" s="26">
-        <v>20066.39</v>
-      </c>
-      <c r="CY47" s="26">
         <v>64336.57</v>
       </c>
     </row>
-    <row r="48" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>11</v>
       </c>
@@ -17952,837 +17918,827 @@
       <c r="Z57" s="26">
         <v>39098.43</v>
       </c>
-      <c r="AB57" s="26">
+      <c r="AA57" s="26">
         <v>49028.19</v>
       </c>
+      <c r="AC57" s="26">
+        <v>13653.42</v>
+      </c>
       <c r="AD57" s="26">
-        <v>13653.42</v>
+        <v>12412.2</v>
       </c>
       <c r="AE57" s="26">
-        <v>12412.2</v>
-      </c>
-      <c r="AF57" s="26">
         <v>47786.97</v>
       </c>
-      <c r="AH57" s="26">
+      <c r="AG57" s="26">
         <v>35995.379999999997</v>
       </c>
+      <c r="AI57" s="26">
+        <v>62474.74</v>
+      </c>
       <c r="AJ57" s="26">
-        <v>62474.74</v>
+        <v>40960.26</v>
       </c>
       <c r="AK57" s="26">
+        <v>56061.77</v>
+      </c>
+      <c r="AL57" s="26">
+        <v>47580.1</v>
+      </c>
+      <c r="AM57" s="26">
+        <v>22755.7</v>
+      </c>
+      <c r="AO57" s="26">
+        <v>44683.92</v>
+      </c>
+      <c r="AP57" s="26">
+        <v>70956.41</v>
+      </c>
+      <c r="AR57" s="26">
+        <v>18411.43</v>
+      </c>
+      <c r="AS57" s="26">
+        <v>18204.560000000001</v>
+      </c>
+      <c r="AU57" s="26">
+        <v>34133.550000000003</v>
+      </c>
+      <c r="AV57" s="26">
+        <v>27099.97</v>
+      </c>
+      <c r="AW57" s="26">
+        <v>32478.59</v>
+      </c>
+      <c r="AX57" s="26">
+        <v>28961.8</v>
+      </c>
+      <c r="AZ57" s="26">
+        <v>42615.22</v>
+      </c>
+      <c r="BB57" s="26">
+        <v>22135.09</v>
+      </c>
+      <c r="BC57" s="26">
+        <v>19652.650000000001</v>
+      </c>
+      <c r="BE57" s="26">
+        <v>14480.9</v>
+      </c>
+      <c r="BF57" s="26">
+        <v>41374</v>
+      </c>
+      <c r="BH57" s="26">
+        <v>47786.97</v>
+      </c>
+      <c r="BI57" s="26">
+        <v>43028.959999999999</v>
+      </c>
+      <c r="BK57" s="26">
+        <v>27720.58</v>
+      </c>
+      <c r="BM57" s="26">
+        <v>60612.91</v>
+      </c>
+      <c r="BN57" s="26">
+        <v>34133.550000000003</v>
+      </c>
+      <c r="BP57" s="26">
+        <v>47166.36</v>
+      </c>
+      <c r="BQ57" s="26">
+        <v>71783.89</v>
+      </c>
+      <c r="BS57" s="26">
+        <v>38064.080000000002</v>
+      </c>
+      <c r="BT57" s="26">
+        <v>33926.68</v>
+      </c>
+      <c r="BV57" s="26">
+        <v>40546.519999999997</v>
+      </c>
+      <c r="BW57" s="26">
+        <v>40339.65</v>
+      </c>
+      <c r="BX57" s="26">
+        <v>41994.61</v>
+      </c>
+      <c r="BZ57" s="26">
+        <v>27513.71</v>
+      </c>
+      <c r="CA57" s="26">
+        <v>41580.870000000003</v>
+      </c>
+      <c r="CB57" s="26">
+        <v>49028.19</v>
+      </c>
+      <c r="CC57" s="26">
+        <v>44063.31</v>
+      </c>
+      <c r="CD57" s="26">
+        <v>21721.35</v>
+      </c>
+      <c r="CE57" s="26">
+        <v>19238.91</v>
+      </c>
+      <c r="CF57" s="26">
+        <v>37029.730000000003</v>
+      </c>
+      <c r="CG57" s="26">
+        <v>31857.98</v>
+      </c>
+      <c r="CI57" s="26">
+        <v>34961.03</v>
+      </c>
+      <c r="CL57" s="26">
+        <v>50062.54</v>
+      </c>
+      <c r="CN57" s="26">
+        <v>51717.5</v>
+      </c>
+      <c r="CO57" s="26">
+        <v>35581.64</v>
+      </c>
+      <c r="CP57" s="26">
+        <v>20687</v>
+      </c>
+      <c r="CR57" s="26">
+        <v>58130.47</v>
+      </c>
+      <c r="CS57" s="26">
+        <v>69094.58</v>
+      </c>
+      <c r="CT57" s="26">
+        <v>26272.49</v>
+      </c>
+      <c r="CU57" s="26">
+        <v>37236.6</v>
+      </c>
+      <c r="CV57" s="26">
+        <v>46132.01</v>
+      </c>
+      <c r="CW57" s="26">
+        <v>50269.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A61" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A63" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A65" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A66" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A67" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A68" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A70" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A72" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A73" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="27">
+        <v>10136.629999999999</v>
+      </c>
+      <c r="C73" s="26">
+        <v>84196.09</v>
+      </c>
+      <c r="D73" s="26">
+        <v>23996.92</v>
+      </c>
+      <c r="F73" s="26">
+        <v>71163.28</v>
+      </c>
+      <c r="H73" s="26">
+        <v>20273.259999999998</v>
+      </c>
+      <c r="I73" s="26">
+        <v>44477.05</v>
+      </c>
+      <c r="N73" s="26">
+        <v>25651.88</v>
+      </c>
+      <c r="P73" s="26">
+        <v>78610.600000000006</v>
+      </c>
+      <c r="Q73" s="26">
+        <v>5378.62</v>
+      </c>
+      <c r="S73" s="26">
+        <v>4551.1400000000003</v>
+      </c>
+      <c r="U73" s="26">
+        <v>5585.49</v>
+      </c>
+      <c r="V73" s="26">
+        <v>21514.48</v>
+      </c>
+      <c r="W73" s="26">
+        <v>88747.23</v>
+      </c>
+      <c r="X73" s="26">
+        <v>75507.55</v>
+      </c>
+      <c r="Y73" s="26">
+        <v>72404.5</v>
+      </c>
+      <c r="Z73" s="26">
+        <v>27927.45</v>
+      </c>
+      <c r="AA73" s="26">
+        <v>28754.93</v>
+      </c>
+      <c r="AC73" s="26">
+        <v>44063.31</v>
+      </c>
+      <c r="AD73" s="26">
+        <v>37236.6</v>
+      </c>
+      <c r="AE73" s="26">
+        <v>86264.79</v>
+      </c>
+      <c r="AG73" s="26">
+        <v>54406.81</v>
+      </c>
+      <c r="AI73" s="26">
+        <v>26479.360000000001</v>
+      </c>
+      <c r="AJ73" s="26">
+        <v>49855.67</v>
+      </c>
+      <c r="AK73" s="26">
+        <v>76748.77</v>
+      </c>
+      <c r="AL73" s="26">
+        <v>58957.95</v>
+      </c>
+      <c r="AM73" s="26">
+        <v>17790.82</v>
+      </c>
+      <c r="AO73" s="26">
+        <v>9722.89</v>
+      </c>
+      <c r="AP73" s="26">
+        <v>32892.33</v>
+      </c>
+      <c r="AR73" s="26">
+        <v>36615.99</v>
+      </c>
+      <c r="AS73" s="26">
+        <v>26686.23</v>
+      </c>
+      <c r="AU73" s="26">
+        <v>71990.759999999995</v>
+      </c>
+      <c r="AV73" s="26">
+        <v>11170.98</v>
+      </c>
+      <c r="AW73" s="26">
+        <v>5792.36</v>
+      </c>
+      <c r="AX73" s="26">
+        <v>9929.76</v>
+      </c>
+      <c r="AZ73" s="26">
+        <v>34340.42</v>
+      </c>
+      <c r="BB73" s="26">
+        <v>19032.04</v>
+      </c>
+      <c r="BC73" s="26">
+        <v>26479.360000000001</v>
+      </c>
+      <c r="BE73" s="26">
+        <v>32271.72</v>
+      </c>
+      <c r="BF73" s="26">
+        <v>22341.96</v>
+      </c>
+      <c r="BH73" s="26">
+        <v>85230.44</v>
+      </c>
+      <c r="BI73" s="26">
+        <v>81713.649999999994</v>
+      </c>
+      <c r="BK73" s="26">
+        <v>42822.09</v>
+      </c>
+      <c r="BM73" s="26">
+        <v>25031.27</v>
+      </c>
+      <c r="BN73" s="26">
+        <v>52544.98</v>
+      </c>
+      <c r="BP73" s="26">
+        <v>43028.959999999999</v>
+      </c>
+      <c r="BQ73" s="26">
+        <v>48200.71</v>
+      </c>
+      <c r="BS73" s="26">
+        <v>56475.51</v>
+      </c>
+      <c r="BT73" s="26">
+        <v>71783.89</v>
+      </c>
+      <c r="BV73" s="26">
+        <v>5171.75</v>
+      </c>
+      <c r="BW73" s="26">
+        <v>77783.12</v>
+      </c>
+      <c r="BX73" s="26">
+        <v>47373.23</v>
+      </c>
+      <c r="BZ73" s="26">
+        <v>10136.629999999999</v>
+      </c>
+      <c r="CA73" s="26">
+        <v>21307.61</v>
+      </c>
+      <c r="CB73" s="26">
+        <v>71370.149999999994</v>
+      </c>
+      <c r="CC73" s="26">
+        <v>49028.19</v>
+      </c>
+      <c r="CD73" s="26">
+        <v>35374.769999999997</v>
+      </c>
+      <c r="CE73" s="26">
+        <v>55027.42</v>
+      </c>
+      <c r="CF73" s="26">
+        <v>4551.1400000000003</v>
+      </c>
+      <c r="CG73" s="26">
+        <v>48200.71</v>
+      </c>
+      <c r="CI73" s="26">
+        <v>24410.66</v>
+      </c>
+      <c r="CL73" s="26">
+        <v>60819.78</v>
+      </c>
+      <c r="CN73" s="26">
+        <v>90195.32</v>
+      </c>
+      <c r="CO73" s="26">
+        <v>54406.81</v>
+      </c>
+      <c r="CP73" s="26">
+        <v>21928.22</v>
+      </c>
+      <c r="CR73" s="26">
+        <v>24410.66</v>
+      </c>
+      <c r="CS73" s="26">
+        <v>31237.37</v>
+      </c>
+      <c r="CT73" s="26">
+        <v>44270.18</v>
+      </c>
+      <c r="CU73" s="26">
+        <v>46545.75</v>
+      </c>
+      <c r="CV73" s="26">
+        <v>84609.83</v>
+      </c>
+      <c r="CW73" s="26">
+        <v>66405.27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A74" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A75" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A76" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A77" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A78" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A79" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A80" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A81" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A84" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="27">
+        <v>55027.42</v>
+      </c>
+      <c r="C86" s="26">
+        <v>60819.78</v>
+      </c>
+      <c r="D86" s="26">
+        <v>65784.66</v>
+      </c>
+      <c r="F86" s="26">
+        <v>55854.9</v>
+      </c>
+      <c r="H86" s="26">
+        <v>47166.36</v>
+      </c>
+      <c r="I86" s="26">
+        <v>62888.480000000003</v>
+      </c>
+      <c r="N86" s="26">
+        <v>84402.96</v>
+      </c>
+      <c r="P86" s="26">
+        <v>52338.11</v>
+      </c>
+      <c r="Q86" s="26">
+        <v>69922.06</v>
+      </c>
+      <c r="S86" s="26">
+        <v>68473.97</v>
+      </c>
+      <c r="U86" s="26">
+        <v>59578.559999999998</v>
+      </c>
+      <c r="V86" s="26">
+        <v>62267.87</v>
+      </c>
+      <c r="W86" s="26">
+        <v>59992.3</v>
+      </c>
+      <c r="X86" s="26">
+        <v>15101.51</v>
+      </c>
+      <c r="Y86" s="26">
+        <v>11170.98</v>
+      </c>
+      <c r="Z86" s="26">
+        <v>65370.92</v>
+      </c>
+      <c r="AA86" s="26">
+        <v>77989.990000000005</v>
+      </c>
+      <c r="AC86" s="26">
+        <v>26272.49</v>
+      </c>
+      <c r="AD86" s="26">
+        <v>31857.98</v>
+      </c>
+      <c r="AE86" s="26">
+        <v>26065.62</v>
+      </c>
+      <c r="AG86" s="26">
+        <v>44063.31</v>
+      </c>
+      <c r="AI86" s="26">
+        <v>98263.25</v>
+      </c>
+      <c r="AJ86" s="26">
+        <v>59371.69</v>
+      </c>
+      <c r="AK86" s="26">
+        <v>56889.25</v>
+      </c>
+      <c r="AL86" s="26">
+        <v>59578.559999999998</v>
+      </c>
+      <c r="AM86" s="26">
+        <v>51096.89</v>
+      </c>
+      <c r="AO86" s="26">
+        <v>70542.67</v>
+      </c>
+      <c r="AP86" s="26">
+        <v>93298.37</v>
+      </c>
+      <c r="AR86" s="26">
+        <v>42408.35</v>
+      </c>
+      <c r="AS86" s="26">
+        <v>43649.57</v>
+      </c>
+      <c r="AU86" s="26">
+        <v>10550.37</v>
+      </c>
+      <c r="AV86" s="26">
+        <v>54199.94</v>
+      </c>
+      <c r="AW86" s="26">
+        <v>60199.17</v>
+      </c>
+      <c r="AX86" s="26">
+        <v>56475.51</v>
+      </c>
+      <c r="AZ86" s="26">
+        <v>62888.480000000003</v>
+      </c>
+      <c r="BB86" s="26">
+        <v>49235.06</v>
+      </c>
+      <c r="BC86" s="26">
+        <v>44683.92</v>
+      </c>
+      <c r="BE86" s="26">
+        <v>37650.339999999997</v>
+      </c>
+      <c r="BF86" s="26">
+        <v>68060.23</v>
+      </c>
+      <c r="BH86" s="26">
+        <v>23996.92</v>
+      </c>
+      <c r="BI86" s="26">
+        <v>21100.74</v>
+      </c>
+      <c r="BK86" s="26">
+        <v>43442.7</v>
+      </c>
+      <c r="BM86" s="26">
+        <v>85437.31</v>
+      </c>
+      <c r="BN86" s="26">
         <v>40960.26</v>
       </c>
-      <c r="AL57" s="26">
-        <v>56061.77</v>
-      </c>
-      <c r="AM57" s="26">
-        <v>47580.1</v>
-      </c>
-      <c r="AN57" s="26">
-        <v>22755.7</v>
-      </c>
-      <c r="AP57" s="26">
-        <v>44683.92</v>
-      </c>
-      <c r="AQ57" s="26">
-        <v>70956.41</v>
-      </c>
-      <c r="AS57" s="26">
-        <v>18411.43</v>
-      </c>
-      <c r="AT57" s="26">
-        <v>18204.560000000001</v>
-      </c>
-      <c r="AV57" s="26">
-        <v>34133.550000000003</v>
-      </c>
-      <c r="AW57" s="26">
-        <v>27099.97</v>
-      </c>
-      <c r="AX57" s="26">
-        <v>32478.59</v>
-      </c>
-      <c r="AY57" s="26">
-        <v>28961.8</v>
-      </c>
-      <c r="BA57" s="26">
-        <v>42615.22</v>
-      </c>
-      <c r="BC57" s="26">
-        <v>22135.09</v>
-      </c>
-      <c r="BD57" s="26">
-        <v>19652.650000000001</v>
-      </c>
-      <c r="BF57" s="26">
-        <v>14480.9</v>
-      </c>
-      <c r="BG57" s="26">
-        <v>41374</v>
-      </c>
-      <c r="BI57" s="26">
-        <v>47786.97</v>
-      </c>
-      <c r="BJ57" s="26">
-        <v>43028.959999999999</v>
-      </c>
-      <c r="BL57" s="26">
-        <v>27720.58</v>
-      </c>
-      <c r="BN57" s="26">
-        <v>60612.91</v>
-      </c>
-      <c r="BO57" s="26">
-        <v>34133.550000000003</v>
-      </c>
-      <c r="BQ57" s="26">
-        <v>47166.36</v>
-      </c>
-      <c r="BR57" s="26">
-        <v>71783.89</v>
-      </c>
-      <c r="BT57" s="26">
-        <v>38064.080000000002</v>
-      </c>
-      <c r="BU57" s="26">
-        <v>33926.68</v>
-      </c>
-      <c r="BW57" s="26">
-        <v>40546.519999999997</v>
-      </c>
-      <c r="BX57" s="26">
-        <v>40339.65</v>
-      </c>
-      <c r="BY57" s="26">
-        <v>41994.61</v>
-      </c>
-      <c r="CA57" s="26">
-        <v>27513.71</v>
-      </c>
-      <c r="CB57" s="26">
-        <v>41580.870000000003</v>
-      </c>
-      <c r="CC57" s="26">
+      <c r="BP86" s="26">
+        <v>67853.36</v>
+      </c>
+      <c r="BQ86" s="26">
+        <v>109020.49</v>
+      </c>
+      <c r="BS86" s="26">
+        <v>36615.99</v>
+      </c>
+      <c r="BT86" s="26">
+        <v>11584.72</v>
+      </c>
+      <c r="BV86" s="26">
+        <v>67646.490000000005</v>
+      </c>
+      <c r="BW86" s="26">
+        <v>16549.599999999999</v>
+      </c>
+      <c r="BX86" s="26">
+        <v>62267.87</v>
+      </c>
+      <c r="BZ86" s="26">
+        <v>55027.42</v>
+      </c>
+      <c r="CA86" s="26">
+        <v>68267.100000000006</v>
+      </c>
+      <c r="CB86" s="26">
         <v>49028.19</v>
       </c>
-      <c r="CD57" s="26">
-        <v>44063.31</v>
-      </c>
-      <c r="CE57" s="26">
-        <v>21721.35</v>
-      </c>
-      <c r="CF57" s="26">
-        <v>19238.91</v>
-      </c>
-      <c r="CG57" s="26">
-        <v>37029.730000000003</v>
-      </c>
-      <c r="CI57" s="26">
-        <v>31857.98</v>
-      </c>
-      <c r="CK57" s="26">
-        <v>34961.03</v>
-      </c>
-      <c r="CN57" s="26">
-        <v>50062.54</v>
-      </c>
-      <c r="CP57" s="26">
-        <v>51717.5</v>
-      </c>
-      <c r="CQ57" s="26">
-        <v>35581.64</v>
-      </c>
-      <c r="CR57" s="26">
-        <v>20687</v>
-      </c>
-      <c r="CT57" s="26">
-        <v>58130.47</v>
-      </c>
-      <c r="CU57" s="26">
-        <v>69094.58</v>
-      </c>
-      <c r="CV57" s="26">
-        <v>26272.49</v>
-      </c>
-      <c r="CW57" s="26">
-        <v>37236.6</v>
-      </c>
-      <c r="CX57" s="26">
-        <v>46132.01</v>
-      </c>
-      <c r="CY57" s="26">
-        <v>50269.41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A59" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A60" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A61" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A66" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A74" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="27">
-        <v>10136.629999999999</v>
-      </c>
-      <c r="C74" s="26">
-        <v>84196.09</v>
-      </c>
-      <c r="D74" s="26">
-        <v>23996.92</v>
-      </c>
-      <c r="F74" s="26">
-        <v>71163.28</v>
-      </c>
-      <c r="H74" s="26">
-        <v>20273.259999999998</v>
-      </c>
-      <c r="I74" s="26">
-        <v>44477.05</v>
-      </c>
-      <c r="N74" s="26">
-        <v>25651.88</v>
-      </c>
-      <c r="P74" s="26">
-        <v>78610.600000000006</v>
-      </c>
-      <c r="Q74" s="26">
-        <v>5378.62</v>
-      </c>
-      <c r="S74" s="26">
-        <v>4551.1400000000003</v>
-      </c>
-      <c r="U74" s="26">
-        <v>5585.49</v>
-      </c>
-      <c r="V74" s="26">
-        <v>21514.48</v>
-      </c>
-      <c r="W74" s="26">
+      <c r="CC86" s="26">
+        <v>64957.18</v>
+      </c>
+      <c r="CD86" s="26">
+        <v>41167.129999999997</v>
+      </c>
+      <c r="CE86" s="26">
+        <v>17997.689999999999</v>
+      </c>
+      <c r="CF86" s="26">
+        <v>64336.57</v>
+      </c>
+      <c r="CG86" s="26">
+        <v>43442.7</v>
+      </c>
+      <c r="CI86" s="26">
+        <v>62681.61</v>
+      </c>
+      <c r="CL86" s="26">
+        <v>57302.99</v>
+      </c>
+      <c r="CN86" s="26">
+        <v>29996.15</v>
+      </c>
+      <c r="CO86" s="26">
+        <v>45097.66</v>
+      </c>
+      <c r="CP86" s="26">
+        <v>47373.23</v>
+      </c>
+      <c r="CR86" s="26">
         <v>88747.23</v>
       </c>
-      <c r="X74" s="26">
-        <v>75507.55</v>
-      </c>
-      <c r="Y74" s="26">
-        <v>72404.5</v>
-      </c>
-      <c r="Z74" s="26">
-        <v>27927.45</v>
-      </c>
-      <c r="AB74" s="26">
-        <v>28754.93</v>
-      </c>
-      <c r="AD74" s="26">
-        <v>44063.31</v>
-      </c>
-      <c r="AE74" s="26">
-        <v>37236.6</v>
-      </c>
-      <c r="AF74" s="26">
-        <v>86264.79</v>
-      </c>
-      <c r="AH74" s="26">
-        <v>54406.81</v>
-      </c>
-      <c r="AJ74" s="26">
-        <v>26479.360000000001</v>
-      </c>
-      <c r="AK74" s="26">
-        <v>49855.67</v>
-      </c>
-      <c r="AL74" s="26">
-        <v>76748.77</v>
-      </c>
-      <c r="AM74" s="26">
-        <v>58957.95</v>
-      </c>
-      <c r="AN74" s="26">
-        <v>17790.82</v>
-      </c>
-      <c r="AP74" s="26">
-        <v>9722.89</v>
-      </c>
-      <c r="AQ74" s="26">
-        <v>32892.33</v>
-      </c>
-      <c r="AS74" s="26">
-        <v>36615.99</v>
-      </c>
-      <c r="AT74" s="26">
-        <v>26686.23</v>
-      </c>
-      <c r="AV74" s="26">
-        <v>71990.759999999995</v>
-      </c>
-      <c r="AW74" s="26">
-        <v>11170.98</v>
-      </c>
-      <c r="AX74" s="26">
-        <v>5792.36</v>
-      </c>
-      <c r="AY74" s="26">
-        <v>9929.76</v>
-      </c>
-      <c r="BA74" s="26">
-        <v>34340.42</v>
-      </c>
-      <c r="BC74" s="26">
-        <v>19032.04</v>
-      </c>
-      <c r="BD74" s="26">
-        <v>26479.360000000001</v>
-      </c>
-      <c r="BF74" s="26">
-        <v>32271.72</v>
-      </c>
-      <c r="BG74" s="26">
-        <v>22341.96</v>
-      </c>
-      <c r="BI74" s="26">
-        <v>85230.44</v>
-      </c>
-      <c r="BJ74" s="26">
-        <v>81713.649999999994</v>
-      </c>
-      <c r="BL74" s="26">
-        <v>42822.09</v>
-      </c>
-      <c r="BN74" s="26">
-        <v>25031.27</v>
-      </c>
-      <c r="BO74" s="26">
-        <v>52544.98</v>
-      </c>
-      <c r="BQ74" s="26">
-        <v>43028.959999999999</v>
-      </c>
-      <c r="BR74" s="26">
-        <v>48200.71</v>
-      </c>
-      <c r="BT74" s="26">
-        <v>56475.51</v>
-      </c>
-      <c r="BU74" s="26">
-        <v>71783.89</v>
-      </c>
-      <c r="BW74" s="26">
-        <v>5171.75</v>
-      </c>
-      <c r="BX74" s="26">
-        <v>77783.12</v>
-      </c>
-      <c r="BY74" s="26">
-        <v>47373.23</v>
-      </c>
-      <c r="CA74" s="26">
-        <v>10136.629999999999</v>
-      </c>
-      <c r="CB74" s="26">
-        <v>21307.61</v>
-      </c>
-      <c r="CC74" s="26">
-        <v>71370.149999999994</v>
-      </c>
-      <c r="CD74" s="26">
-        <v>49028.19</v>
-      </c>
-      <c r="CE74" s="26">
-        <v>35374.769999999997</v>
-      </c>
-      <c r="CF74" s="26">
-        <v>55027.42</v>
-      </c>
-      <c r="CG74" s="26">
-        <v>4551.1400000000003</v>
-      </c>
-      <c r="CI74" s="26">
-        <v>48200.71</v>
-      </c>
-      <c r="CK74" s="26">
-        <v>24410.66</v>
-      </c>
-      <c r="CN74" s="26">
-        <v>60819.78</v>
-      </c>
-      <c r="CP74" s="26">
-        <v>90195.32</v>
-      </c>
-      <c r="CQ74" s="26">
-        <v>54406.81</v>
-      </c>
-      <c r="CR74" s="26">
-        <v>21928.22</v>
-      </c>
-      <c r="CT74" s="26">
-        <v>24410.66</v>
-      </c>
-      <c r="CU74" s="26">
-        <v>31237.37</v>
-      </c>
-      <c r="CV74" s="26">
-        <v>44270.18</v>
-      </c>
-      <c r="CW74" s="26">
-        <v>46545.75</v>
-      </c>
-      <c r="CX74" s="26">
-        <v>84609.83</v>
-      </c>
-      <c r="CY74" s="26">
-        <v>66405.27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A76" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A80" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A81" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A82" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A83" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A84" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A85" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A86" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CS86" s="26">
+        <v>91022.8</v>
+      </c>
+      <c r="CT86" s="26">
+        <v>48821.32</v>
+      </c>
+      <c r="CU86" s="26">
+        <v>58544.21</v>
+      </c>
+      <c r="CV86" s="26">
+        <v>24203.79</v>
+      </c>
+      <c r="CW86" s="26">
+        <v>57302.99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:103" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="27">
-        <v>55027.42</v>
-      </c>
-      <c r="C88" s="26">
-        <v>60819.78</v>
-      </c>
-      <c r="D88" s="26">
-        <v>65784.66</v>
-      </c>
-      <c r="F88" s="26">
-        <v>55854.9</v>
-      </c>
-      <c r="H88" s="26">
-        <v>47166.36</v>
-      </c>
-      <c r="I88" s="26">
-        <v>62888.480000000003</v>
-      </c>
-      <c r="N88" s="26">
-        <v>84402.96</v>
-      </c>
-      <c r="P88" s="26">
-        <v>52338.11</v>
-      </c>
-      <c r="Q88" s="26">
-        <v>69922.06</v>
-      </c>
-      <c r="S88" s="26">
-        <v>68473.97</v>
-      </c>
-      <c r="U88" s="26">
-        <v>59578.559999999998</v>
-      </c>
-      <c r="V88" s="26">
-        <v>62267.87</v>
-      </c>
-      <c r="W88" s="26">
-        <v>59992.3</v>
-      </c>
-      <c r="X88" s="26">
-        <v>15101.51</v>
-      </c>
-      <c r="Y88" s="26">
-        <v>11170.98</v>
-      </c>
-      <c r="Z88" s="26">
-        <v>65370.92</v>
-      </c>
-      <c r="AB88" s="26">
-        <v>77989.990000000005</v>
-      </c>
-      <c r="AD88" s="26">
-        <v>26272.49</v>
-      </c>
-      <c r="AE88" s="26">
-        <v>31857.98</v>
-      </c>
-      <c r="AF88" s="26">
-        <v>26065.62</v>
-      </c>
-      <c r="AH88" s="26">
-        <v>44063.31</v>
-      </c>
-      <c r="AJ88" s="26">
-        <v>98263.25</v>
-      </c>
-      <c r="AK88" s="26">
-        <v>59371.69</v>
-      </c>
-      <c r="AL88" s="26">
-        <v>56889.25</v>
-      </c>
-      <c r="AM88" s="26">
-        <v>59578.559999999998</v>
-      </c>
-      <c r="AN88" s="26">
-        <v>51096.89</v>
-      </c>
-      <c r="AP88" s="26">
-        <v>70542.67</v>
-      </c>
-      <c r="AQ88" s="26">
-        <v>93298.37</v>
-      </c>
-      <c r="AS88" s="26">
-        <v>42408.35</v>
-      </c>
-      <c r="AT88" s="26">
-        <v>43649.57</v>
-      </c>
-      <c r="AV88" s="26">
-        <v>10550.37</v>
-      </c>
-      <c r="AW88" s="26">
-        <v>54199.94</v>
-      </c>
-      <c r="AX88" s="26">
-        <v>60199.17</v>
-      </c>
-      <c r="AY88" s="26">
-        <v>56475.51</v>
-      </c>
-      <c r="BA88" s="26">
-        <v>62888.480000000003</v>
-      </c>
-      <c r="BC88" s="26">
-        <v>49235.06</v>
-      </c>
-      <c r="BD88" s="26">
-        <v>44683.92</v>
-      </c>
-      <c r="BF88" s="26">
-        <v>37650.339999999997</v>
-      </c>
-      <c r="BG88" s="26">
-        <v>68060.23</v>
-      </c>
-      <c r="BI88" s="26">
-        <v>23996.92</v>
-      </c>
-      <c r="BJ88" s="26">
-        <v>21100.74</v>
-      </c>
-      <c r="BL88" s="26">
-        <v>43442.7</v>
-      </c>
-      <c r="BN88" s="26">
-        <v>85437.31</v>
-      </c>
-      <c r="BO88" s="26">
-        <v>40960.26</v>
-      </c>
-      <c r="BQ88" s="26">
-        <v>67853.36</v>
-      </c>
-      <c r="BR88" s="26">
-        <v>109020.49</v>
-      </c>
-      <c r="BT88" s="26">
-        <v>36615.99</v>
-      </c>
-      <c r="BU88" s="26">
-        <v>11584.72</v>
-      </c>
-      <c r="BW88" s="26">
-        <v>67646.490000000005</v>
-      </c>
-      <c r="BX88" s="26">
-        <v>16549.599999999999</v>
-      </c>
-      <c r="BY88" s="26">
-        <v>62267.87</v>
-      </c>
-      <c r="CA88" s="26">
-        <v>55027.42</v>
-      </c>
-      <c r="CB88" s="26">
-        <v>68267.100000000006</v>
-      </c>
-      <c r="CC88" s="26">
-        <v>49028.19</v>
-      </c>
-      <c r="CD88" s="26">
-        <v>64957.18</v>
-      </c>
-      <c r="CE88" s="26">
-        <v>41167.129999999997</v>
-      </c>
-      <c r="CF88" s="26">
-        <v>17997.689999999999</v>
-      </c>
-      <c r="CG88" s="26">
-        <v>64336.57</v>
-      </c>
-      <c r="CI88" s="26">
-        <v>43442.7</v>
-      </c>
-      <c r="CK88" s="26">
-        <v>62681.61</v>
-      </c>
-      <c r="CN88" s="26">
-        <v>57302.99</v>
-      </c>
-      <c r="CP88" s="26">
-        <v>29996.15</v>
-      </c>
-      <c r="CQ88" s="26">
-        <v>45097.66</v>
-      </c>
-      <c r="CR88" s="26">
-        <v>47373.23</v>
-      </c>
-      <c r="CT88" s="26">
-        <v>88747.23</v>
-      </c>
-      <c r="CU88" s="26">
-        <v>91022.8</v>
-      </c>
-      <c r="CV88" s="26">
-        <v>48821.32</v>
-      </c>
-      <c r="CW88" s="26">
-        <v>58544.21</v>
-      </c>
-      <c r="CX88" s="26">
-        <v>24203.79</v>
-      </c>
-      <c r="CY88" s="26">
-        <v>57302.99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:103" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:103" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="26">
+        <v>7497402</v>
+      </c>
+      <c r="O89" s="26">
+        <v>3662367.28</v>
+      </c>
+      <c r="T89" s="26">
+        <v>1635796.8</v>
+      </c>
+      <c r="BD89" s="26">
+        <v>6347800.3600000003</v>
+      </c>
+      <c r="BU89" s="26">
+        <v>7111172.2000000002</v>
+      </c>
+      <c r="CH89" s="26">
+        <v>6097886.96</v>
+      </c>
+      <c r="CJ89" s="26">
+        <v>6684047.4800000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:103" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="J91" s="26">
-        <v>7497402</v>
-      </c>
-      <c r="O91" s="26">
-        <v>3662367.28</v>
-      </c>
-      <c r="T91" s="26">
-        <v>1635796.8</v>
-      </c>
-      <c r="BE91" s="26">
-        <v>6347800.3600000003</v>
-      </c>
-      <c r="BV91" s="26">
-        <v>7111172.2000000002</v>
-      </c>
-      <c r="CJ91" s="26">
-        <v>6097886.96</v>
-      </c>
-      <c r="CL91" s="26">
-        <v>6684047.4800000004</v>
-      </c>
-    </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:103" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:103" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:103" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="28" t="s">
         <v>84</v>
       </c>
     </row>
@@ -25265,7 +25221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -26285,7 +26241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -27305,7 +27261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/Data Prep.xlsx
+++ b/Data Prep.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\Freelancing\Genetic Algorithm Jaringan Kapal item is object\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\Freelancing\Genetic Algorithm Jaringan Kapal\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FFF09-54E1-4D6B-A64D-D5BF8B0CFA50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DF4A50-6B1E-40FE-AEA2-85BA56BEABF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="775" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="119">
   <si>
     <t>Namlea</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Arwala/ Sutilirang</t>
   </si>
   <si>
-    <t>Kisar 1</t>
-  </si>
-  <si>
     <t>P. Leti</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
   </si>
   <si>
     <t>Dobo.2</t>
-  </si>
-  <si>
-    <t>Kisar.1</t>
   </si>
   <si>
     <t>Namlea.1</t>
@@ -1171,7 +1165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5457,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:CI1000"/>
   <sheetViews>
-    <sheetView topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="CI3" sqref="CI3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5510,7 +5506,7 @@
         <v>30</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>32</v>
@@ -5663,19 +5659,19 @@
         <v>81</v>
       </c>
       <c r="BO1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="BP1" s="14" t="s">
+      <c r="BQ1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="BQ1" s="14" t="s">
+      <c r="BR1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="BR1" s="14" t="s">
+      <c r="BS1" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="BS1" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="BT1" s="21" t="s">
         <v>0</v>
@@ -5693,34 +5689,34 @@
         <v>8</v>
       </c>
       <c r="BY1" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BZ1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="CA1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC1" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="CB1" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC1" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="CD1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="CE1" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CF1" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CG1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="CH1" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CI1" s="21" t="s">
         <v>33</v>
@@ -7238,8 +7234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:CI1000"/>
   <sheetViews>
-    <sheetView topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="CI1" sqref="CI1:CI1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7291,7 +7287,7 @@
         <v>30</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>32</v>
@@ -7444,19 +7440,19 @@
         <v>81</v>
       </c>
       <c r="BO1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="BP1" s="14" t="s">
+      <c r="BQ1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="BQ1" s="14" t="s">
+      <c r="BR1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="BR1" s="14" t="s">
+      <c r="BS1" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="BS1" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="BT1" s="21" t="s">
         <v>0</v>
@@ -7474,34 +7470,34 @@
         <v>8</v>
       </c>
       <c r="BY1" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BZ1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="CA1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC1" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="CB1" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC1" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="CD1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="CE1" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CF1" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CG1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="CH1" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CI1" s="21" t="s">
         <v>33</v>
@@ -10432,8 +10428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:CI1000"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="BO1" sqref="BO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10485,7 +10481,7 @@
         <v>30</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>32</v>
@@ -10637,20 +10633,20 @@
       <c r="BN1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BO1" s="14" t="s">
+      <c r="BO1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="BP1" s="14" t="s">
+      <c r="BQ1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="BQ1" s="14" t="s">
+      <c r="BR1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="BR1" s="14" t="s">
+      <c r="BS1" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="BS1" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="BT1" s="21" t="s">
         <v>0</v>
@@ -10668,34 +10664,34 @@
         <v>8</v>
       </c>
       <c r="BY1" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BZ1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="CA1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC1" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="CB1" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC1" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="CD1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="CE1" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CF1" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CG1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="CH1" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CI1" s="21" t="s">
         <v>33</v>
@@ -14142,27 +14138,27 @@
     </row>
     <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -14192,7 +14188,7 @@
     </row>
     <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -14202,17 +14198,17 @@
     </row>
     <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -14222,12 +14218,12 @@
     </row>
     <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -14237,12 +14233,12 @@
     </row>
     <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -14267,10 +14263,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -14336,7 +14332,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15417,13 +15413,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -15515,7 +15511,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15610,7 +15606,7 @@
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15635,7 +15631,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15670,7 +15666,7 @@
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15785,7 +15781,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15795,7 +15791,7 @@
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15805,7 +15801,7 @@
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15840,7 +15836,7 @@
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15855,7 +15851,7 @@
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15865,7 +15861,7 @@
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -15915,27 +15911,27 @@
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -15945,10 +15941,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29588B-8EE5-4C8E-A5E1-8320351B4284}">
-  <dimension ref="A1:CW101"/>
+  <dimension ref="A1:CV100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BH8" sqref="BH8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15958,7 +15954,7 @@
     <col min="3" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="32" t="s">
         <v>44</v>
@@ -15970,10 +15966,10 @@
         <v>59</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>4</v>
@@ -15985,16 +15981,16 @@
         <v>70</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="N1" s="33" t="s">
         <v>53</v>
@@ -16009,7 +16005,7 @@
         <v>48</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="33" t="s">
         <v>49</v>
@@ -16051,243 +16047,240 @@
         <v>21</v>
       </c>
       <c r="AF1" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="AG1" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH1" s="33" t="s">
+      <c r="BG1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AI1" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK1" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL1" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM1" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO1" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP1" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS1" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV1" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY1" s="33" t="s">
+      <c r="BJ1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK1" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP1" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="BQ1" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="BV1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="CC1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="CE1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CG1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="CI1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="CJ1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK1" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL1" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AZ1" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA1" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB1" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC1" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE1" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF1" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG1" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="BH1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="BI1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ1" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL1" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM1" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="BN1" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO1" s="33" t="s">
+      <c r="CM1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="CO1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="CP1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="BP1" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="BR1" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="BS1" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="BT1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="BU1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="BV1" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="BW1" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="BX1" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="BZ1" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="CA1" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB1" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC1" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="CD1" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="CE1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="CF1" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="CG1" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="CH1" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI1" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="CJ1" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="CL1" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="CM1" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="CN1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="CO1" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="CP1" s="33" t="s">
-        <v>37</v>
-      </c>
       <c r="CQ1" s="33" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="CR1" s="33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CS1" s="33" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="CT1" s="33" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="CU1" s="33" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="CV1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="CW1" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:101" s="31" customFormat="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
@@ -16351,173 +16344,173 @@
       <c r="AE7" s="26">
         <v>86678.53</v>
       </c>
-      <c r="AG7" s="26">
+      <c r="AF7" s="26">
         <v>34961.03</v>
       </c>
+      <c r="AH7" s="26">
+        <v>56475.51</v>
+      </c>
       <c r="AI7" s="26">
-        <v>56475.51</v>
+        <v>21307.61</v>
       </c>
       <c r="AJ7" s="26">
-        <v>21307.61</v>
+        <v>51096.89</v>
       </c>
       <c r="AK7" s="26">
-        <v>51096.89</v>
+        <v>29168.67</v>
       </c>
       <c r="AL7" s="26">
-        <v>29168.67</v>
-      </c>
-      <c r="AM7" s="26">
         <v>47166.36</v>
       </c>
+      <c r="AN7" s="26">
+        <v>41580.870000000003</v>
+      </c>
       <c r="AO7" s="26">
-        <v>41580.870000000003</v>
-      </c>
-      <c r="AP7" s="26">
         <v>42822.09</v>
       </c>
+      <c r="AQ7" s="26">
+        <v>59164.82</v>
+      </c>
       <c r="AR7" s="26">
-        <v>59164.82</v>
-      </c>
-      <c r="AS7" s="26">
         <v>53993.07</v>
       </c>
+      <c r="AT7" s="26">
+        <v>75093.81</v>
+      </c>
       <c r="AU7" s="26">
-        <v>75093.81</v>
+        <v>43442.7</v>
       </c>
       <c r="AV7" s="26">
-        <v>43442.7</v>
+        <v>35374.769999999997</v>
       </c>
       <c r="AW7" s="26">
-        <v>35374.769999999997</v>
-      </c>
-      <c r="AX7" s="26">
         <v>39098.43</v>
       </c>
-      <c r="AZ7" s="26">
+      <c r="AY7" s="26">
         <v>9102.2800000000007</v>
       </c>
+      <c r="BA7" s="26">
+        <v>48200.71</v>
+      </c>
       <c r="BB7" s="26">
+        <v>53786.2</v>
+      </c>
+      <c r="BD7" s="26">
+        <v>54820.55</v>
+      </c>
+      <c r="BE7" s="26">
+        <v>16963.34</v>
+      </c>
+      <c r="BG7" s="26">
+        <v>87919.75</v>
+      </c>
+      <c r="BH7" s="26">
+        <v>81920.52</v>
+      </c>
+      <c r="BJ7" s="26">
+        <v>27513.71</v>
+      </c>
+      <c r="BL7" s="26">
+        <v>40753.39</v>
+      </c>
+      <c r="BM7" s="26">
+        <v>104676.22</v>
+      </c>
+      <c r="BO7" s="26">
+        <v>6206.1</v>
+      </c>
+      <c r="BP7" s="26">
+        <v>57302.99</v>
+      </c>
+      <c r="BR7" s="26">
+        <v>100952.56</v>
+      </c>
+      <c r="BS7" s="26">
+        <v>72818.240000000005</v>
+      </c>
+      <c r="BU7" s="26">
+        <v>39719.040000000001</v>
+      </c>
+      <c r="BV7" s="26">
+        <v>80679.3</v>
+      </c>
+      <c r="BW7" s="26">
+        <v>17790.82</v>
+      </c>
+      <c r="BY7" s="26">
+        <v>40960.26</v>
+      </c>
+      <c r="BZ7" s="26">
+        <v>17377.080000000002</v>
+      </c>
+      <c r="CA7" s="26">
         <v>48200.71</v>
       </c>
-      <c r="BC7" s="26">
-        <v>53786.2</v>
-      </c>
-      <c r="BE7" s="26">
-        <v>54820.55</v>
-      </c>
-      <c r="BF7" s="26">
-        <v>16963.34</v>
-      </c>
-      <c r="BH7" s="26">
-        <v>87919.75</v>
-      </c>
-      <c r="BI7" s="26">
-        <v>81920.52</v>
-      </c>
-      <c r="BK7" s="26">
-        <v>27513.71</v>
-      </c>
-      <c r="BM7" s="26">
-        <v>40753.39</v>
-      </c>
-      <c r="BN7" s="26">
-        <v>104676.22</v>
-      </c>
-      <c r="BP7" s="26">
-        <v>6206.1</v>
-      </c>
-      <c r="BQ7" s="26">
-        <v>57302.99</v>
-      </c>
-      <c r="BS7" s="26">
-        <v>100952.56</v>
-      </c>
-      <c r="BT7" s="26">
-        <v>72818.240000000005</v>
-      </c>
-      <c r="BV7" s="26">
-        <v>39719.040000000001</v>
-      </c>
-      <c r="BW7" s="26">
-        <v>80679.3</v>
-      </c>
-      <c r="BX7" s="26">
-        <v>17790.82</v>
-      </c>
-      <c r="BZ7" s="26">
+      <c r="CB7" s="26">
+        <v>17583.95</v>
+      </c>
+      <c r="CC7" s="26">
+        <v>27720.58</v>
+      </c>
+      <c r="CD7" s="26">
+        <v>66405.27</v>
+      </c>
+      <c r="CE7" s="26">
+        <v>33306.07</v>
+      </c>
+      <c r="CF7" s="26">
+        <v>29582.41</v>
+      </c>
+      <c r="CH7" s="26">
+        <v>22962.57</v>
+      </c>
+      <c r="CK7" s="26">
+        <v>31857.98</v>
+      </c>
+      <c r="CM7" s="26">
+        <v>90609.06</v>
+      </c>
+      <c r="CN7" s="26">
+        <v>34547.29</v>
+      </c>
+      <c r="CO7" s="26">
+        <v>50269.41</v>
+      </c>
+      <c r="CQ7" s="26">
+        <v>44890.79</v>
+      </c>
+      <c r="CR7" s="26">
         <v>40960.26</v>
       </c>
-      <c r="CA7" s="26">
-        <v>17377.080000000002</v>
-      </c>
-      <c r="CB7" s="26">
-        <v>48200.71</v>
-      </c>
-      <c r="CC7" s="26">
-        <v>17583.95</v>
-      </c>
-      <c r="CD7" s="26">
-        <v>27720.58</v>
-      </c>
-      <c r="CE7" s="26">
-        <v>66405.27</v>
-      </c>
-      <c r="CF7" s="26">
-        <v>33306.07</v>
-      </c>
-      <c r="CG7" s="26">
-        <v>29582.41</v>
-      </c>
-      <c r="CI7" s="26">
-        <v>22962.57</v>
-      </c>
-      <c r="CL7" s="26">
-        <v>31857.98</v>
-      </c>
-      <c r="CN7" s="26">
-        <v>90609.06</v>
-      </c>
-      <c r="CO7" s="26">
-        <v>34547.29</v>
-      </c>
-      <c r="CP7" s="26">
-        <v>50269.41</v>
-      </c>
-      <c r="CR7" s="26">
-        <v>44890.79</v>
-      </c>
       <c r="CS7" s="26">
-        <v>40960.26</v>
+        <v>67025.88</v>
       </c>
       <c r="CT7" s="26">
-        <v>67025.88</v>
+        <v>20893.87</v>
       </c>
       <c r="CU7" s="26">
-        <v>20893.87</v>
+        <v>85023.57</v>
       </c>
       <c r="CV7" s="26">
-        <v>85023.57</v>
-      </c>
-      <c r="CW7" s="26">
         <v>38684.69</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>5</v>
       </c>
@@ -16581,173 +16574,173 @@
       <c r="AE11" s="26">
         <v>56682.38</v>
       </c>
-      <c r="AG11" s="26">
+      <c r="AF11" s="26">
         <v>24410.66</v>
       </c>
+      <c r="AH11" s="26">
+        <v>107986.14</v>
+      </c>
       <c r="AI11" s="26">
-        <v>107986.14</v>
+        <v>31030.5</v>
       </c>
       <c r="AJ11" s="26">
-        <v>31030.5</v>
+        <v>7861.06</v>
       </c>
       <c r="AK11" s="26">
-        <v>7861.06</v>
+        <v>22135.09</v>
       </c>
       <c r="AL11" s="26">
-        <v>22135.09</v>
-      </c>
-      <c r="AM11" s="26">
         <v>70749.539999999994</v>
       </c>
+      <c r="AN11" s="26">
+        <v>93298.37</v>
+      </c>
       <c r="AO11" s="26">
-        <v>93298.37</v>
-      </c>
-      <c r="AP11" s="26">
         <v>93918.98</v>
       </c>
+      <c r="AQ11" s="26">
+        <v>75714.42</v>
+      </c>
       <c r="AR11" s="26">
-        <v>75714.42</v>
-      </c>
-      <c r="AS11" s="26">
         <v>72197.63</v>
       </c>
+      <c r="AT11" s="26">
+        <v>58751.08</v>
+      </c>
       <c r="AU11" s="26">
-        <v>58751.08</v>
+        <v>70542.67</v>
       </c>
       <c r="AV11" s="26">
-        <v>70542.67</v>
+        <v>70956.41</v>
       </c>
       <c r="AW11" s="26">
-        <v>70956.41</v>
-      </c>
-      <c r="AX11" s="26">
         <v>68060.23</v>
       </c>
-      <c r="AZ11" s="26">
+      <c r="AY11" s="26">
         <v>48821.32</v>
       </c>
+      <c r="BA11" s="26">
+        <v>70749.539999999994</v>
+      </c>
       <c r="BB11" s="26">
-        <v>70749.539999999994</v>
-      </c>
-      <c r="BC11" s="26">
         <v>74059.460000000006</v>
       </c>
+      <c r="BD11" s="26">
+        <v>71370.149999999994</v>
+      </c>
       <c r="BE11" s="26">
+        <v>60612.91</v>
+      </c>
+      <c r="BG11" s="26">
+        <v>73231.98</v>
+      </c>
+      <c r="BH11" s="26">
+        <v>53579.33</v>
+      </c>
+      <c r="BJ11" s="26">
+        <v>34133.550000000003</v>
+      </c>
+      <c r="BL11" s="26">
+        <v>89160.97</v>
+      </c>
+      <c r="BM11" s="26">
+        <v>90402.19</v>
+      </c>
+      <c r="BO11" s="26">
+        <v>48407.58</v>
+      </c>
+      <c r="BP11" s="26">
+        <v>109020.49</v>
+      </c>
+      <c r="BR11" s="26">
+        <v>86471.66</v>
+      </c>
+      <c r="BS11" s="26">
+        <v>52338.11</v>
+      </c>
+      <c r="BU11" s="26">
+        <v>81713.649999999994</v>
+      </c>
+      <c r="BV11" s="26">
+        <v>65991.53</v>
+      </c>
+      <c r="BW11" s="26">
+        <v>34754.160000000003</v>
+      </c>
+      <c r="BY11" s="26">
+        <v>68473.97</v>
+      </c>
+      <c r="BZ11" s="26">
+        <v>61233.52</v>
+      </c>
+      <c r="CA11" s="26">
+        <v>6826.71</v>
+      </c>
+      <c r="CB11" s="26">
+        <v>35374.769999999997</v>
+      </c>
+      <c r="CC11" s="26">
+        <v>42408.35</v>
+      </c>
+      <c r="CD11" s="26">
+        <v>63509.09</v>
+      </c>
+      <c r="CE11" s="26">
+        <v>72818.240000000005</v>
+      </c>
+      <c r="CF11" s="26">
+        <v>29168.67</v>
+      </c>
+      <c r="CH11" s="26">
+        <v>55441.16</v>
+      </c>
+      <c r="CK11" s="26">
+        <v>19032.04</v>
+      </c>
+      <c r="CM11" s="26">
+        <v>60199.17</v>
+      </c>
+      <c r="CN11" s="26">
+        <v>23376.31</v>
+      </c>
+      <c r="CO11" s="26">
         <v>71370.149999999994</v>
       </c>
-      <c r="BF11" s="26">
-        <v>60612.91</v>
-      </c>
-      <c r="BH11" s="26">
-        <v>73231.98</v>
-      </c>
-      <c r="BI11" s="26">
-        <v>53579.33</v>
-      </c>
-      <c r="BK11" s="26">
-        <v>34133.550000000003</v>
-      </c>
-      <c r="BM11" s="26">
-        <v>89160.97</v>
-      </c>
-      <c r="BN11" s="26">
-        <v>90402.19</v>
-      </c>
-      <c r="BP11" s="26">
-        <v>48407.58</v>
-      </c>
-      <c r="BQ11" s="26">
-        <v>109020.49</v>
-      </c>
-      <c r="BS11" s="26">
-        <v>86471.66</v>
-      </c>
-      <c r="BT11" s="26">
-        <v>52338.11</v>
-      </c>
-      <c r="BV11" s="26">
-        <v>81713.649999999994</v>
-      </c>
-      <c r="BW11" s="26">
-        <v>65991.53</v>
-      </c>
-      <c r="BX11" s="26">
-        <v>34754.160000000003</v>
-      </c>
-      <c r="BZ11" s="26">
-        <v>68473.97</v>
-      </c>
-      <c r="CA11" s="26">
-        <v>61233.52</v>
-      </c>
-      <c r="CB11" s="26">
-        <v>6826.71</v>
-      </c>
-      <c r="CC11" s="26">
-        <v>35374.769999999997</v>
-      </c>
-      <c r="CD11" s="26">
-        <v>42408.35</v>
-      </c>
-      <c r="CE11" s="26">
-        <v>63509.09</v>
-      </c>
-      <c r="CF11" s="26">
-        <v>72818.240000000005</v>
-      </c>
-      <c r="CG11" s="26">
-        <v>29168.67</v>
-      </c>
-      <c r="CI11" s="26">
-        <v>55441.16</v>
-      </c>
-      <c r="CL11" s="26">
-        <v>19032.04</v>
-      </c>
-      <c r="CN11" s="26">
-        <v>60199.17</v>
-      </c>
-      <c r="CO11" s="26">
-        <v>23376.31</v>
-      </c>
-      <c r="CP11" s="26">
-        <v>71370.149999999994</v>
+      <c r="CQ11" s="26">
+        <v>92057.15</v>
       </c>
       <c r="CR11" s="26">
         <v>92057.15</v>
       </c>
       <c r="CS11" s="26">
-        <v>92057.15</v>
+        <v>83161.740000000005</v>
       </c>
       <c r="CT11" s="26">
-        <v>83161.740000000005</v>
+        <v>33512.94</v>
       </c>
       <c r="CU11" s="26">
-        <v>33512.94</v>
+        <v>55441.16</v>
       </c>
       <c r="CV11" s="26">
-        <v>55441.16</v>
-      </c>
-      <c r="CW11" s="26">
         <v>13239.68</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>7</v>
       </c>
@@ -16763,49 +16756,49 @@
       <c r="AB15" s="26">
         <v>3835034.72</v>
       </c>
-      <c r="AN15" s="26">
+      <c r="AM15" s="26">
         <v>2017482.72</v>
       </c>
-      <c r="AQ15" s="26">
+      <c r="AP15" s="26">
         <v>2158343</v>
       </c>
-      <c r="AT15" s="26">
+      <c r="AS15" s="26">
         <v>2335554.3199999998</v>
       </c>
-      <c r="BD15" s="26">
+      <c r="BC15" s="26">
         <v>2685433.08</v>
       </c>
-      <c r="BU15" s="26">
+      <c r="BT15" s="26">
         <v>3448804.92</v>
       </c>
-      <c r="CH15" s="26">
+      <c r="CG15" s="26">
         <v>2435519.6800000002</v>
       </c>
-      <c r="CJ15" s="26">
+      <c r="CI15" s="26">
         <v>3021680.2</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>6</v>
       </c>
@@ -16824,69 +16817,69 @@
       <c r="AB20" s="26">
         <v>5861605.2000000002</v>
       </c>
-      <c r="AN20" s="26">
+      <c r="AM20" s="26">
         <v>4044053.2</v>
       </c>
-      <c r="AQ20" s="26">
+      <c r="AP20" s="26">
         <v>4184913.48</v>
       </c>
-      <c r="AT20" s="26">
+      <c r="AS20" s="26">
         <v>4362124.8</v>
       </c>
-      <c r="BD20" s="26">
+      <c r="BC20" s="26">
         <v>4712003.5599999996</v>
       </c>
-      <c r="BU20" s="26">
+      <c r="BT20" s="26">
         <v>5475375.4000000004</v>
       </c>
-      <c r="CH20" s="26">
+      <c r="CG20" s="26">
         <v>4462090.16</v>
       </c>
-      <c r="CJ20" s="26">
+      <c r="CI20" s="26">
         <v>5048250.68</v>
       </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>8</v>
       </c>
@@ -16950,1796 +16943,1791 @@
       <c r="AE29" s="26">
         <v>104055.61</v>
       </c>
-      <c r="AG29" s="26">
+      <c r="AF29" s="26">
         <v>70749.539999999994</v>
       </c>
+      <c r="AH29" s="26">
+        <v>11584.72</v>
+      </c>
       <c r="AI29" s="26">
-        <v>11584.72</v>
+        <v>63095.35</v>
       </c>
       <c r="AJ29" s="26">
-        <v>63095.35</v>
+        <v>92264.02</v>
       </c>
       <c r="AK29" s="26">
-        <v>92264.02</v>
+        <v>76335.03</v>
       </c>
       <c r="AL29" s="26">
-        <v>76335.03</v>
-      </c>
-      <c r="AM29" s="26">
         <v>33512.94</v>
       </c>
+      <c r="AN29" s="26">
+        <v>14067.16</v>
+      </c>
       <c r="AO29" s="26">
-        <v>14067.16</v>
-      </c>
-      <c r="AP29" s="26">
         <v>21721.35</v>
       </c>
+      <c r="AQ29" s="26">
+        <v>51924.37</v>
+      </c>
       <c r="AR29" s="26">
+        <v>40960.26</v>
+      </c>
+      <c r="AT29" s="26">
+        <v>91022.8</v>
+      </c>
+      <c r="AU29" s="26">
+        <v>29168.67</v>
+      </c>
+      <c r="AV29" s="26">
+        <v>26686.23</v>
+      </c>
+      <c r="AW29" s="26">
+        <v>30203.02</v>
+      </c>
+      <c r="AY29" s="26">
+        <v>46545.75</v>
+      </c>
+      <c r="BA29" s="26">
+        <v>34340.42</v>
+      </c>
+      <c r="BB29" s="26">
+        <v>40546.519999999997</v>
+      </c>
+      <c r="BD29" s="26">
+        <v>47373.23</v>
+      </c>
+      <c r="BE29" s="26">
+        <v>33099.199999999997</v>
+      </c>
+      <c r="BG29" s="26">
+        <v>104469.35</v>
+      </c>
+      <c r="BH29" s="26">
+        <v>99504.47</v>
+      </c>
+      <c r="BJ29" s="26">
+        <v>59578.559999999998</v>
+      </c>
+      <c r="BL29" s="26">
+        <v>9516.02</v>
+      </c>
+      <c r="BM29" s="26">
+        <v>68267.100000000006</v>
+      </c>
+      <c r="BO29" s="26">
         <v>51924.37</v>
       </c>
-      <c r="AS29" s="26">
-        <v>40960.26</v>
-      </c>
-      <c r="AU29" s="26">
-        <v>91022.8</v>
-      </c>
-      <c r="AV29" s="26">
-        <v>29168.67</v>
-      </c>
-      <c r="AW29" s="26">
-        <v>26686.23</v>
-      </c>
-      <c r="AX29" s="26">
-        <v>30203.02</v>
-      </c>
-      <c r="AZ29" s="26">
-        <v>46545.75</v>
-      </c>
-      <c r="BB29" s="26">
-        <v>34340.42</v>
-      </c>
-      <c r="BC29" s="26">
-        <v>40546.519999999997</v>
-      </c>
-      <c r="BE29" s="26">
-        <v>47373.23</v>
-      </c>
-      <c r="BF29" s="26">
-        <v>33099.199999999997</v>
-      </c>
-      <c r="BH29" s="26">
-        <v>104469.35</v>
-      </c>
-      <c r="BI29" s="26">
-        <v>99504.47</v>
-      </c>
-      <c r="BK29" s="26">
-        <v>59578.559999999998</v>
-      </c>
-      <c r="BM29" s="26">
-        <v>9516.02</v>
-      </c>
-      <c r="BN29" s="26">
-        <v>68267.100000000006</v>
-      </c>
       <c r="BP29" s="26">
-        <v>51924.37</v>
-      </c>
-      <c r="BQ29" s="26">
         <v>21100.74</v>
       </c>
+      <c r="BR29" s="26">
+        <v>72197.63</v>
+      </c>
       <c r="BS29" s="26">
-        <v>72197.63</v>
-      </c>
-      <c r="BT29" s="26">
         <v>90195.32</v>
       </c>
+      <c r="BU29" s="26">
+        <v>17790.82</v>
+      </c>
       <c r="BV29" s="26">
-        <v>17790.82</v>
+        <v>96608.29</v>
       </c>
       <c r="BW29" s="26">
-        <v>96608.29</v>
-      </c>
-      <c r="BX29" s="26">
         <v>60199.17</v>
       </c>
+      <c r="BY29" s="26">
+        <v>29375.54</v>
+      </c>
       <c r="BZ29" s="26">
-        <v>29375.54</v>
+        <v>32271.72</v>
       </c>
       <c r="CA29" s="26">
-        <v>32271.72</v>
+        <v>87299.14</v>
       </c>
       <c r="CB29" s="26">
-        <v>87299.14</v>
+        <v>62061</v>
       </c>
       <c r="CC29" s="26">
-        <v>62061</v>
+        <v>53165.59</v>
       </c>
       <c r="CD29" s="26">
-        <v>53165.59</v>
+        <v>72818.240000000005</v>
       </c>
       <c r="CE29" s="26">
-        <v>72818.240000000005</v>
+        <v>21721.35</v>
       </c>
       <c r="CF29" s="26">
-        <v>21721.35</v>
-      </c>
-      <c r="CG29" s="26">
         <v>64543.44</v>
       </c>
-      <c r="CI29" s="26">
+      <c r="CH29" s="26">
         <v>37236.6</v>
       </c>
-      <c r="CL29" s="26">
+      <c r="CK29" s="26">
         <v>76128.160000000003</v>
       </c>
+      <c r="CM29" s="26">
+        <v>107986.14</v>
+      </c>
       <c r="CN29" s="26">
-        <v>107986.14</v>
+        <v>70956.41</v>
       </c>
       <c r="CO29" s="26">
-        <v>70956.41</v>
-      </c>
-      <c r="CP29" s="26">
         <v>36615.99</v>
       </c>
+      <c r="CQ29" s="26">
+        <v>3930.53</v>
+      </c>
       <c r="CR29" s="26">
-        <v>3930.53</v>
+        <v>19652.650000000001</v>
       </c>
       <c r="CS29" s="26">
-        <v>19652.650000000001</v>
+        <v>59992.3</v>
       </c>
       <c r="CT29" s="26">
-        <v>59992.3</v>
+        <v>60406.04</v>
       </c>
       <c r="CU29" s="26">
-        <v>60406.04</v>
+        <v>102400.65</v>
       </c>
       <c r="CV29" s="26">
-        <v>102400.65</v>
-      </c>
-      <c r="CW29" s="26">
         <v>81506.78</v>
       </c>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A40" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="27">
+        <v>67646.490000000005</v>
+      </c>
+      <c r="C40" s="26">
+        <v>55854.9</v>
+      </c>
+      <c r="D40" s="26">
+        <v>74059.460000000006</v>
+      </c>
+      <c r="F40" s="26">
+        <v>57716.73</v>
+      </c>
+      <c r="H40" s="26">
+        <v>61854.13</v>
+      </c>
+      <c r="I40" s="26">
+        <v>66819.009999999995</v>
+      </c>
+      <c r="N40" s="26">
+        <v>97642.64</v>
+      </c>
+      <c r="P40" s="26">
+        <v>47993.84</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>81920.52</v>
+      </c>
+      <c r="S40" s="26">
+        <v>80886.17</v>
+      </c>
+      <c r="U40" s="26">
+        <v>71990.759999999995</v>
+      </c>
+      <c r="V40" s="26">
+        <v>69508.320000000007</v>
+      </c>
+      <c r="W40" s="26">
+        <v>48614.45</v>
+      </c>
+      <c r="X40" s="26">
+        <v>2689.31</v>
+      </c>
+      <c r="Y40" s="26">
+        <v>19032.04</v>
+      </c>
+      <c r="Z40" s="26">
+        <v>72611.37</v>
+      </c>
+      <c r="AA40" s="26">
+        <v>84402.96</v>
+      </c>
+      <c r="AC40" s="26">
+        <v>40753.39</v>
+      </c>
+      <c r="AD40" s="26">
+        <v>46338.879999999997</v>
+      </c>
+      <c r="AE40" s="26">
+        <v>7240.45</v>
+      </c>
+      <c r="AF40" s="26">
+        <v>48407.58</v>
+      </c>
+      <c r="AH40" s="26">
+        <v>102400.65</v>
+      </c>
+      <c r="AI40" s="26">
+        <v>62267.87</v>
+      </c>
+      <c r="AJ40" s="26">
+        <v>54199.94</v>
+      </c>
+      <c r="AK40" s="26">
+        <v>68887.710000000006</v>
+      </c>
+      <c r="AL40" s="26">
+        <v>62681.61</v>
+      </c>
+      <c r="AN40" s="26">
+        <v>83368.61</v>
+      </c>
+      <c r="AO40" s="26">
+        <v>112330.41</v>
+      </c>
+      <c r="AQ40" s="26">
+        <v>56061.77</v>
+      </c>
+      <c r="AR40" s="26">
+        <v>57302.99</v>
+      </c>
+      <c r="AT40" s="26">
+        <v>16135.86</v>
+      </c>
+      <c r="AU40" s="26">
+        <v>67232.75</v>
+      </c>
+      <c r="AV40" s="26">
+        <v>72404.5</v>
+      </c>
+      <c r="AW40" s="26">
+        <v>68473.97</v>
+      </c>
+      <c r="AY40" s="26">
+        <v>73645.72</v>
+      </c>
+      <c r="BA40" s="26">
+        <v>62061</v>
+      </c>
+      <c r="BB40" s="26">
+        <v>58337.34</v>
+      </c>
+      <c r="BD40" s="26">
+        <v>51717.5</v>
+      </c>
+      <c r="BE40" s="26">
+        <v>76128.160000000003</v>
+      </c>
+      <c r="BG40" s="26">
+        <v>27513.71</v>
+      </c>
+      <c r="BH40" s="26">
+        <v>2896.18</v>
+      </c>
+      <c r="BJ40" s="26">
+        <v>50476.28</v>
+      </c>
+      <c r="BL40" s="26">
+        <v>100745.69</v>
+      </c>
+      <c r="BM40" s="26">
+        <v>44477.05</v>
+      </c>
+      <c r="BO40" s="26">
+        <v>75714.42</v>
+      </c>
+      <c r="BP40" s="26">
+        <v>113571.63</v>
+      </c>
+      <c r="BR40" s="26">
+        <v>40339.65</v>
+      </c>
+      <c r="BS40" s="26">
+        <v>9309.15</v>
+      </c>
+      <c r="BU40" s="26">
+        <v>80472.429999999993</v>
+      </c>
+      <c r="BV40" s="26">
+        <v>24203.79</v>
+      </c>
+      <c r="BW40" s="26">
+        <v>65164.05</v>
+      </c>
+      <c r="BY40" s="26">
+        <v>67439.62</v>
+      </c>
+      <c r="BZ40" s="26">
+        <v>76335.03</v>
+      </c>
+      <c r="CA40" s="26">
+        <v>49855.67</v>
+      </c>
+      <c r="CB40" s="26">
+        <v>67232.75</v>
+      </c>
+      <c r="CC40" s="26">
+        <v>50683.15</v>
+      </c>
+      <c r="CD40" s="26">
+        <v>31237.37</v>
+      </c>
+      <c r="CE40" s="26">
+        <v>76541.899999999994</v>
+      </c>
+      <c r="CF40" s="26">
+        <v>50269.41</v>
+      </c>
+      <c r="CH40" s="26">
+        <v>69715.19</v>
+      </c>
+      <c r="CK40" s="26">
+        <v>65784.66</v>
+      </c>
+      <c r="CM40" s="26">
+        <v>11377.85</v>
+      </c>
+      <c r="CN40" s="26">
+        <v>49441.93</v>
+      </c>
+      <c r="CO40" s="26">
+        <v>60406.04</v>
+      </c>
+      <c r="CQ40" s="26">
+        <v>97849.51</v>
+      </c>
+      <c r="CR40" s="26">
+        <v>110468.58</v>
+      </c>
+      <c r="CS40" s="26">
+        <v>52544.98</v>
+      </c>
+      <c r="CT40" s="26">
+        <v>62474.74</v>
+      </c>
+      <c r="CU40" s="26">
+        <v>5999.23</v>
+      </c>
+      <c r="CV40" s="26">
+        <v>61233.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="27">
+        <v>62681.61</v>
+      </c>
+      <c r="C43" s="26">
+        <v>17790.82</v>
+      </c>
+      <c r="D43" s="26">
+        <v>49855.67</v>
+      </c>
+      <c r="F43" s="26">
+        <v>2275.5700000000002</v>
+      </c>
+      <c r="H43" s="26">
+        <v>67025.88</v>
+      </c>
+      <c r="I43" s="26">
+        <v>26272.49</v>
+      </c>
+      <c r="N43" s="26">
+        <v>81299.91</v>
+      </c>
+      <c r="P43" s="26">
+        <v>13446.55</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>70335.8</v>
+      </c>
+      <c r="S43" s="26">
+        <v>71990.759999999995</v>
+      </c>
+      <c r="U43" s="26">
+        <v>63509.09</v>
+      </c>
+      <c r="V43" s="26">
+        <v>50890.02</v>
+      </c>
+      <c r="W43" s="26">
+        <v>25031.27</v>
+      </c>
+      <c r="X43" s="26">
+        <v>56682.38</v>
+      </c>
+      <c r="Y43" s="26">
+        <v>59785.43</v>
+      </c>
+      <c r="Z43" s="26">
+        <v>45304.53</v>
+      </c>
+      <c r="AA43" s="26">
+        <v>52131.24</v>
+      </c>
+      <c r="AC43" s="26">
+        <v>63509.09</v>
+      </c>
+      <c r="AD43" s="26">
+        <v>63302.22</v>
+      </c>
+      <c r="AE43" s="26">
+        <v>67025.88</v>
+      </c>
+      <c r="AF43" s="26">
+        <v>16756.47</v>
+      </c>
+      <c r="AH43" s="26">
+        <v>106538.05</v>
+      </c>
+      <c r="AI43" s="26">
+        <v>21721.35</v>
+      </c>
+      <c r="AJ43" s="26">
+        <v>8481.67</v>
+      </c>
+      <c r="AK43" s="26">
+        <v>13653.42</v>
+      </c>
+      <c r="AL43" s="26">
+        <v>67439.62</v>
+      </c>
+      <c r="AN43" s="26">
+        <v>76128.160000000003</v>
+      </c>
+      <c r="AO43" s="26">
+        <v>84196.09</v>
+      </c>
+      <c r="AQ43" s="26">
+        <v>68887.710000000006</v>
+      </c>
+      <c r="AR43" s="26">
+        <v>65370.92</v>
+      </c>
+      <c r="AT43" s="26">
+        <v>58957.95</v>
+      </c>
+      <c r="AU43" s="26">
+        <v>63922.83</v>
+      </c>
+      <c r="AV43" s="26">
+        <v>63302.22</v>
+      </c>
+      <c r="AW43" s="26">
+        <v>60199.17</v>
+      </c>
+      <c r="AY43" s="26">
+        <v>40132.78</v>
+      </c>
+      <c r="BA43" s="26">
+        <v>66819.009999999995</v>
+      </c>
+      <c r="BB43" s="26">
+        <v>67025.88</v>
+      </c>
+      <c r="BD43" s="26">
+        <v>64543.44</v>
+      </c>
+      <c r="BE43" s="26">
+        <v>51924.37</v>
+      </c>
+      <c r="BG43" s="26">
+        <v>71990.759999999995</v>
+      </c>
+      <c r="BH43" s="26">
+        <v>62267.87</v>
+      </c>
+      <c r="BJ43" s="26">
+        <v>26479.360000000001</v>
+      </c>
+      <c r="BL43" s="26">
+        <v>79851.820000000007</v>
+      </c>
+      <c r="BM43" s="26">
+        <v>85023.57</v>
+      </c>
+      <c r="BO43" s="26">
+        <v>37443.47</v>
+      </c>
+      <c r="BP43" s="26">
+        <v>99504.47</v>
+      </c>
+      <c r="BR43" s="26">
+        <v>84816.7</v>
+      </c>
+      <c r="BS43" s="26">
+        <v>52958.720000000001</v>
+      </c>
+      <c r="BU43" s="26">
+        <v>74266.33</v>
+      </c>
+      <c r="BV43" s="26">
+        <v>64957.18</v>
+      </c>
+      <c r="BW43" s="26">
+        <v>25238.14</v>
+      </c>
+      <c r="BY43" s="26">
+        <v>61647.26</v>
+      </c>
+      <c r="BZ43" s="26">
+        <v>52544.98</v>
+      </c>
+      <c r="CA43" s="26">
+        <v>7861.06</v>
+      </c>
+      <c r="CB43" s="26">
+        <v>25031.27</v>
+      </c>
+      <c r="CC43" s="26">
+        <v>34961.03</v>
+      </c>
+      <c r="CD43" s="26">
+        <v>60406.04</v>
+      </c>
+      <c r="CE43" s="26">
+        <v>66198.399999999994</v>
+      </c>
+      <c r="CF43" s="26">
+        <v>21514.48</v>
+      </c>
+      <c r="CH43" s="26">
+        <v>47993.84</v>
+      </c>
+      <c r="CK43" s="26">
+        <v>10757.24</v>
+      </c>
+      <c r="CM43" s="26">
+        <v>70956.41</v>
+      </c>
+      <c r="CN43" s="26">
+        <v>15515.25</v>
+      </c>
+      <c r="CO43" s="26">
+        <v>65991.53</v>
+      </c>
+      <c r="CQ43" s="26">
+        <v>83575.48</v>
+      </c>
+      <c r="CR43" s="26">
+        <v>82748</v>
+      </c>
+      <c r="CS43" s="26">
+        <v>76748.77</v>
+      </c>
+      <c r="CT43" s="26">
+        <v>23790.05</v>
+      </c>
+      <c r="CU43" s="26">
+        <v>65577.789999999994</v>
+      </c>
+      <c r="CV43" s="26">
+        <v>4758.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A46" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="27">
+        <v>67646.490000000005</v>
+      </c>
+      <c r="C46" s="26">
+        <v>66612.14</v>
+      </c>
+      <c r="D46" s="26">
+        <v>75093.81</v>
+      </c>
+      <c r="F46" s="26">
+        <v>62267.87</v>
+      </c>
+      <c r="H46" s="26">
+        <v>60199.17</v>
+      </c>
+      <c r="I46" s="26">
+        <v>71577.02</v>
+      </c>
+      <c r="N46" s="26">
+        <v>95780.81</v>
+      </c>
+      <c r="P46" s="26">
+        <v>58957.95</v>
+      </c>
+      <c r="Q46" s="26">
+        <v>82334.259999999995</v>
+      </c>
+      <c r="S46" s="26">
+        <v>84196.09</v>
+      </c>
+      <c r="U46" s="26">
+        <v>72404.5</v>
+      </c>
+      <c r="V46" s="26">
+        <v>70335.8</v>
+      </c>
+      <c r="W46" s="26">
+        <v>60199.17</v>
+      </c>
+      <c r="X46" s="26">
+        <v>10757.24</v>
+      </c>
+      <c r="Y46" s="26">
+        <v>7447.32</v>
+      </c>
+      <c r="Z46" s="26">
+        <v>74680.070000000007</v>
+      </c>
+      <c r="AA46" s="26">
+        <v>91229.67</v>
+      </c>
+      <c r="AC46" s="26">
+        <v>38684.69</v>
+      </c>
+      <c r="AD46" s="26">
+        <v>44270.18</v>
+      </c>
+      <c r="AE46" s="26">
+        <v>21721.35</v>
+      </c>
+      <c r="AF46" s="26">
+        <v>55234.29</v>
+      </c>
+      <c r="AH46" s="26">
+        <v>105710.57</v>
+      </c>
+      <c r="AI46" s="26">
+        <v>72818.240000000005</v>
+      </c>
+      <c r="AJ46" s="26">
+        <v>64957.18</v>
+      </c>
+      <c r="AK46" s="26">
+        <v>67853.36</v>
+      </c>
+      <c r="AL46" s="26">
+        <v>62267.87</v>
+      </c>
+      <c r="AN46" s="26">
+        <v>91022.8</v>
+      </c>
+      <c r="AO46" s="26">
+        <v>103641.87</v>
+      </c>
+      <c r="AQ46" s="26">
+        <v>51924.37</v>
+      </c>
+      <c r="AR46" s="26">
+        <v>55648.03</v>
+      </c>
+      <c r="AT46" s="26">
+        <v>5999.23</v>
+      </c>
+      <c r="AU46" s="26">
+        <v>66612.14</v>
+      </c>
+      <c r="AV46" s="26">
+        <v>72611.37</v>
+      </c>
+      <c r="AW46" s="26">
+        <v>69301.45</v>
+      </c>
+      <c r="AY46" s="26">
+        <v>77576.25</v>
+      </c>
+      <c r="BA46" s="26">
+        <v>61233.52</v>
+      </c>
+      <c r="BB46" s="26">
+        <v>56889.25</v>
+      </c>
+      <c r="BD46" s="26">
+        <v>49855.67</v>
+      </c>
+      <c r="BE46" s="26">
+        <v>77369.38</v>
+      </c>
+      <c r="BG46" s="26">
+        <v>19238.91</v>
+      </c>
+      <c r="BH46" s="26">
+        <v>16963.34</v>
+      </c>
+      <c r="BJ46" s="26">
+        <v>53993.07</v>
+      </c>
+      <c r="BL46" s="26">
+        <v>96401.42</v>
+      </c>
+      <c r="BM46" s="26">
+        <v>36409.120000000003</v>
+      </c>
+      <c r="BO46" s="26">
+        <v>87919.75</v>
+      </c>
+      <c r="BP46" s="26">
+        <v>116674.68</v>
+      </c>
+      <c r="BR46" s="26">
+        <v>32064.85</v>
+      </c>
+      <c r="BS46" s="26">
+        <v>8895.41</v>
+      </c>
+      <c r="BU46" s="26">
+        <v>86471.66</v>
+      </c>
+      <c r="BV46" s="26">
+        <v>11584.72</v>
+      </c>
+      <c r="BW46" s="26">
+        <v>73025.11</v>
+      </c>
+      <c r="BY46" s="26">
+        <v>67853.36</v>
+      </c>
+      <c r="BZ46" s="26">
+        <v>77989.990000000005</v>
+      </c>
+      <c r="CA46" s="26">
+        <v>61440.39</v>
+      </c>
+      <c r="CB46" s="26">
+        <v>75714.42</v>
+      </c>
+      <c r="CC46" s="26">
+        <v>54199.94</v>
+      </c>
+      <c r="CD46" s="26">
+        <v>30203.02</v>
+      </c>
+      <c r="CE46" s="26">
+        <v>75714.42</v>
+      </c>
+      <c r="CF46" s="26">
+        <v>61026.65</v>
+      </c>
+      <c r="CH46" s="26">
+        <v>70956.41</v>
+      </c>
+      <c r="CK46" s="26">
+        <v>65577.789999999994</v>
+      </c>
+      <c r="CM46" s="26">
+        <v>25651.88</v>
+      </c>
+      <c r="CN46" s="26">
+        <v>56268.639999999999</v>
+      </c>
+      <c r="CO46" s="26">
+        <v>58957.95</v>
+      </c>
+      <c r="CQ46" s="26">
+        <v>97228.9</v>
+      </c>
+      <c r="CR46" s="26">
+        <v>101986.91</v>
+      </c>
+      <c r="CS46" s="26">
+        <v>43856.44</v>
+      </c>
+      <c r="CT46" s="26">
+        <v>68680.84</v>
+      </c>
+      <c r="CU46" s="26">
+        <v>20066.39</v>
+      </c>
+      <c r="CV46" s="26">
+        <v>64336.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A48" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A50" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A52" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="27">
+        <v>27099.97</v>
+      </c>
+      <c r="C56" s="26">
+        <v>60819.78</v>
+      </c>
+      <c r="D56" s="26">
+        <v>39305.300000000003</v>
+      </c>
+      <c r="F56" s="26">
+        <v>52958.720000000001</v>
+      </c>
+      <c r="H56" s="26">
+        <v>21514.48</v>
+      </c>
+      <c r="I56" s="26">
+        <v>42408.35</v>
+      </c>
+      <c r="N56" s="26">
+        <v>57716.73</v>
+      </c>
+      <c r="P56" s="26">
+        <v>54406.81</v>
+      </c>
+      <c r="Q56" s="26">
+        <v>41994.61</v>
+      </c>
+      <c r="S56" s="26">
+        <v>40960.26</v>
+      </c>
+      <c r="U56" s="26">
+        <v>32271.72</v>
+      </c>
+      <c r="V56" s="26">
+        <v>33306.07</v>
+      </c>
+      <c r="W56" s="26">
+        <v>63095.35</v>
+      </c>
+      <c r="X56" s="26">
+        <v>37443.47</v>
+      </c>
+      <c r="Y56" s="26">
+        <v>34547.29</v>
+      </c>
+      <c r="Z56" s="26">
+        <v>39098.43</v>
+      </c>
+      <c r="AA56" s="26">
+        <v>49028.19</v>
+      </c>
+      <c r="AC56" s="26">
+        <v>13653.42</v>
+      </c>
+      <c r="AD56" s="26">
+        <v>12412.2</v>
+      </c>
+      <c r="AE56" s="26">
+        <v>47786.97</v>
+      </c>
+      <c r="AF56" s="26">
+        <v>35995.379999999997</v>
+      </c>
+      <c r="AH56" s="26">
+        <v>62474.74</v>
+      </c>
+      <c r="AI56" s="26">
+        <v>40960.26</v>
+      </c>
+      <c r="AJ56" s="26">
+        <v>56061.77</v>
+      </c>
+      <c r="AK56" s="26">
+        <v>47580.1</v>
+      </c>
+      <c r="AL56" s="26">
+        <v>22755.7</v>
+      </c>
+      <c r="AN56" s="26">
+        <v>44683.92</v>
+      </c>
+      <c r="AO56" s="26">
+        <v>70956.41</v>
+      </c>
+      <c r="AQ56" s="26">
+        <v>18411.43</v>
+      </c>
+      <c r="AR56" s="26">
+        <v>18204.560000000001</v>
+      </c>
+      <c r="AT56" s="26">
+        <v>34133.550000000003</v>
+      </c>
+      <c r="AU56" s="26">
+        <v>27099.97</v>
+      </c>
+      <c r="AV56" s="26">
+        <v>32478.59</v>
+      </c>
+      <c r="AW56" s="26">
+        <v>28961.8</v>
+      </c>
+      <c r="AY56" s="26">
+        <v>42615.22</v>
+      </c>
+      <c r="BA56" s="26">
+        <v>22135.09</v>
+      </c>
+      <c r="BB56" s="26">
+        <v>19652.650000000001</v>
+      </c>
+      <c r="BD56" s="26">
+        <v>14480.9</v>
+      </c>
+      <c r="BE56" s="26">
+        <v>41374</v>
+      </c>
+      <c r="BG56" s="26">
+        <v>47786.97</v>
+      </c>
+      <c r="BH56" s="26">
+        <v>43028.959999999999</v>
+      </c>
+      <c r="BJ56" s="26">
+        <v>27720.58</v>
+      </c>
+      <c r="BL56" s="26">
+        <v>60612.91</v>
+      </c>
+      <c r="BM56" s="26">
+        <v>34133.550000000003</v>
+      </c>
+      <c r="BO56" s="26">
+        <v>47166.36</v>
+      </c>
+      <c r="BP56" s="26">
+        <v>71783.89</v>
+      </c>
+      <c r="BR56" s="26">
+        <v>38064.080000000002</v>
+      </c>
+      <c r="BS56" s="26">
+        <v>33926.68</v>
+      </c>
+      <c r="BU56" s="26">
+        <v>40546.519999999997</v>
+      </c>
+      <c r="BV56" s="26">
+        <v>40339.65</v>
+      </c>
+      <c r="BW56" s="26">
+        <v>41994.61</v>
+      </c>
+      <c r="BY56" s="26">
+        <v>27513.71</v>
+      </c>
+      <c r="BZ56" s="26">
+        <v>41580.870000000003</v>
+      </c>
+      <c r="CA56" s="26">
+        <v>49028.19</v>
+      </c>
+      <c r="CB56" s="26">
+        <v>44063.31</v>
+      </c>
+      <c r="CC56" s="26">
+        <v>21721.35</v>
+      </c>
+      <c r="CD56" s="26">
+        <v>19238.91</v>
+      </c>
+      <c r="CE56" s="26">
+        <v>37029.730000000003</v>
+      </c>
+      <c r="CF56" s="26">
+        <v>31857.98</v>
+      </c>
+      <c r="CH56" s="26">
+        <v>34961.03</v>
+      </c>
+      <c r="CK56" s="26">
+        <v>50062.54</v>
+      </c>
+      <c r="CM56" s="26">
+        <v>51717.5</v>
+      </c>
+      <c r="CN56" s="26">
+        <v>35581.64</v>
+      </c>
+      <c r="CO56" s="26">
+        <v>20687</v>
+      </c>
+      <c r="CQ56" s="26">
+        <v>58130.47</v>
+      </c>
+      <c r="CR56" s="26">
+        <v>69094.58</v>
+      </c>
+      <c r="CS56" s="26">
+        <v>26272.49</v>
+      </c>
+      <c r="CT56" s="26">
+        <v>37236.6</v>
+      </c>
+      <c r="CU56" s="26">
+        <v>46132.01</v>
+      </c>
+      <c r="CV56" s="26">
+        <v>50269.41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+    <row r="59" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A61" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="27">
+    <row r="62" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A63" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A65" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A66" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A67" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A68" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A70" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A72" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="27">
+        <v>10136.629999999999</v>
+      </c>
+      <c r="C72" s="26">
+        <v>84196.09</v>
+      </c>
+      <c r="D72" s="26">
+        <v>23996.92</v>
+      </c>
+      <c r="F72" s="26">
+        <v>71163.28</v>
+      </c>
+      <c r="H72" s="26">
+        <v>20273.259999999998</v>
+      </c>
+      <c r="I72" s="26">
+        <v>44477.05</v>
+      </c>
+      <c r="N72" s="26">
+        <v>25651.88</v>
+      </c>
+      <c r="P72" s="26">
+        <v>78610.600000000006</v>
+      </c>
+      <c r="Q72" s="26">
+        <v>5378.62</v>
+      </c>
+      <c r="S72" s="26">
+        <v>4551.1400000000003</v>
+      </c>
+      <c r="U72" s="26">
+        <v>5585.49</v>
+      </c>
+      <c r="V72" s="26">
+        <v>21514.48</v>
+      </c>
+      <c r="W72" s="26">
+        <v>88747.23</v>
+      </c>
+      <c r="X72" s="26">
+        <v>75507.55</v>
+      </c>
+      <c r="Y72" s="26">
+        <v>72404.5</v>
+      </c>
+      <c r="Z72" s="26">
+        <v>27927.45</v>
+      </c>
+      <c r="AA72" s="26">
+        <v>28754.93</v>
+      </c>
+      <c r="AC72" s="26">
+        <v>44063.31</v>
+      </c>
+      <c r="AD72" s="26">
+        <v>37236.6</v>
+      </c>
+      <c r="AE72" s="26">
+        <v>86264.79</v>
+      </c>
+      <c r="AF72" s="26">
+        <v>54406.81</v>
+      </c>
+      <c r="AH72" s="26">
+        <v>26479.360000000001</v>
+      </c>
+      <c r="AI72" s="26">
+        <v>49855.67</v>
+      </c>
+      <c r="AJ72" s="26">
+        <v>76748.77</v>
+      </c>
+      <c r="AK72" s="26">
+        <v>58957.95</v>
+      </c>
+      <c r="AL72" s="26">
+        <v>17790.82</v>
+      </c>
+      <c r="AN72" s="26">
+        <v>9722.89</v>
+      </c>
+      <c r="AO72" s="26">
+        <v>32892.33</v>
+      </c>
+      <c r="AQ72" s="26">
+        <v>36615.99</v>
+      </c>
+      <c r="AR72" s="26">
+        <v>26686.23</v>
+      </c>
+      <c r="AT72" s="26">
+        <v>71990.759999999995</v>
+      </c>
+      <c r="AU72" s="26">
+        <v>11170.98</v>
+      </c>
+      <c r="AV72" s="26">
+        <v>5792.36</v>
+      </c>
+      <c r="AW72" s="26">
+        <v>9929.76</v>
+      </c>
+      <c r="AY72" s="26">
+        <v>34340.42</v>
+      </c>
+      <c r="BA72" s="26">
+        <v>19032.04</v>
+      </c>
+      <c r="BB72" s="26">
+        <v>26479.360000000001</v>
+      </c>
+      <c r="BD72" s="26">
+        <v>32271.72</v>
+      </c>
+      <c r="BE72" s="26">
+        <v>22341.96</v>
+      </c>
+      <c r="BG72" s="26">
+        <v>85230.44</v>
+      </c>
+      <c r="BH72" s="26">
+        <v>81713.649999999994</v>
+      </c>
+      <c r="BJ72" s="26">
+        <v>42822.09</v>
+      </c>
+      <c r="BL72" s="26">
+        <v>25031.27</v>
+      </c>
+      <c r="BM72" s="26">
+        <v>52544.98</v>
+      </c>
+      <c r="BO72" s="26">
+        <v>43028.959999999999</v>
+      </c>
+      <c r="BP72" s="26">
+        <v>48200.71</v>
+      </c>
+      <c r="BR72" s="26">
+        <v>56475.51</v>
+      </c>
+      <c r="BS72" s="26">
+        <v>71783.89</v>
+      </c>
+      <c r="BU72" s="26">
+        <v>5171.75</v>
+      </c>
+      <c r="BV72" s="26">
+        <v>77783.12</v>
+      </c>
+      <c r="BW72" s="26">
+        <v>47373.23</v>
+      </c>
+      <c r="BY72" s="26">
+        <v>10136.629999999999</v>
+      </c>
+      <c r="BZ72" s="26">
+        <v>21307.61</v>
+      </c>
+      <c r="CA72" s="26">
+        <v>71370.149999999994</v>
+      </c>
+      <c r="CB72" s="26">
+        <v>49028.19</v>
+      </c>
+      <c r="CC72" s="26">
+        <v>35374.769999999997</v>
+      </c>
+      <c r="CD72" s="26">
+        <v>55027.42</v>
+      </c>
+      <c r="CE72" s="26">
+        <v>4551.1400000000003</v>
+      </c>
+      <c r="CF72" s="26">
+        <v>48200.71</v>
+      </c>
+      <c r="CH72" s="26">
+        <v>24410.66</v>
+      </c>
+      <c r="CK72" s="26">
+        <v>60819.78</v>
+      </c>
+      <c r="CM72" s="26">
+        <v>90195.32</v>
+      </c>
+      <c r="CN72" s="26">
+        <v>54406.81</v>
+      </c>
+      <c r="CO72" s="26">
+        <v>21928.22</v>
+      </c>
+      <c r="CQ72" s="26">
+        <v>24410.66</v>
+      </c>
+      <c r="CR72" s="26">
+        <v>31237.37</v>
+      </c>
+      <c r="CS72" s="26">
+        <v>44270.18</v>
+      </c>
+      <c r="CT72" s="26">
+        <v>46545.75</v>
+      </c>
+      <c r="CU72" s="26">
+        <v>84609.83</v>
+      </c>
+      <c r="CV72" s="26">
+        <v>66405.27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A73" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A74" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A75" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A76" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A77" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A78" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A79" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A80" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A81" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A84" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="27">
+        <v>55027.42</v>
+      </c>
+      <c r="C85" s="26">
+        <v>60819.78</v>
+      </c>
+      <c r="D85" s="26">
+        <v>65784.66</v>
+      </c>
+      <c r="F85" s="26">
+        <v>55854.9</v>
+      </c>
+      <c r="H85" s="26">
+        <v>47166.36</v>
+      </c>
+      <c r="I85" s="26">
+        <v>62888.480000000003</v>
+      </c>
+      <c r="N85" s="26">
+        <v>84402.96</v>
+      </c>
+      <c r="P85" s="26">
+        <v>52338.11</v>
+      </c>
+      <c r="Q85" s="26">
+        <v>69922.06</v>
+      </c>
+      <c r="S85" s="26">
+        <v>68473.97</v>
+      </c>
+      <c r="U85" s="26">
+        <v>59578.559999999998</v>
+      </c>
+      <c r="V85" s="26">
+        <v>62267.87</v>
+      </c>
+      <c r="W85" s="26">
+        <v>59992.3</v>
+      </c>
+      <c r="X85" s="26">
+        <v>15101.51</v>
+      </c>
+      <c r="Y85" s="26">
+        <v>11170.98</v>
+      </c>
+      <c r="Z85" s="26">
+        <v>65370.92</v>
+      </c>
+      <c r="AA85" s="26">
+        <v>77989.990000000005</v>
+      </c>
+      <c r="AC85" s="26">
+        <v>26272.49</v>
+      </c>
+      <c r="AD85" s="26">
+        <v>31857.98</v>
+      </c>
+      <c r="AE85" s="26">
+        <v>26065.62</v>
+      </c>
+      <c r="AF85" s="26">
+        <v>44063.31</v>
+      </c>
+      <c r="AH85" s="26">
+        <v>98263.25</v>
+      </c>
+      <c r="AI85" s="26">
+        <v>59371.69</v>
+      </c>
+      <c r="AJ85" s="26">
+        <v>56889.25</v>
+      </c>
+      <c r="AK85" s="26">
+        <v>59578.559999999998</v>
+      </c>
+      <c r="AL85" s="26">
+        <v>51096.89</v>
+      </c>
+      <c r="AN85" s="26">
+        <v>70542.67</v>
+      </c>
+      <c r="AO85" s="26">
+        <v>93298.37</v>
+      </c>
+      <c r="AQ85" s="26">
+        <v>42408.35</v>
+      </c>
+      <c r="AR85" s="26">
+        <v>43649.57</v>
+      </c>
+      <c r="AT85" s="26">
+        <v>10550.37</v>
+      </c>
+      <c r="AU85" s="26">
+        <v>54199.94</v>
+      </c>
+      <c r="AV85" s="26">
+        <v>60199.17</v>
+      </c>
+      <c r="AW85" s="26">
+        <v>56475.51</v>
+      </c>
+      <c r="AY85" s="26">
+        <v>62888.480000000003</v>
+      </c>
+      <c r="BA85" s="26">
+        <v>49235.06</v>
+      </c>
+      <c r="BB85" s="26">
+        <v>44683.92</v>
+      </c>
+      <c r="BD85" s="26">
+        <v>37650.339999999997</v>
+      </c>
+      <c r="BE85" s="26">
+        <v>68060.23</v>
+      </c>
+      <c r="BG85" s="26">
+        <v>23996.92</v>
+      </c>
+      <c r="BH85" s="26">
+        <v>21100.74</v>
+      </c>
+      <c r="BJ85" s="26">
+        <v>43442.7</v>
+      </c>
+      <c r="BL85" s="26">
+        <v>85437.31</v>
+      </c>
+      <c r="BM85" s="26">
+        <v>40960.26</v>
+      </c>
+      <c r="BO85" s="26">
+        <v>67853.36</v>
+      </c>
+      <c r="BP85" s="26">
+        <v>109020.49</v>
+      </c>
+      <c r="BR85" s="26">
+        <v>36615.99</v>
+      </c>
+      <c r="BS85" s="26">
+        <v>11584.72</v>
+      </c>
+      <c r="BU85" s="26">
         <v>67646.490000000005</v>
       </c>
-      <c r="C41" s="26">
-        <v>55854.9</v>
-      </c>
-      <c r="D41" s="26">
-        <v>74059.460000000006</v>
-      </c>
-      <c r="F41" s="26">
-        <v>57716.73</v>
-      </c>
-      <c r="H41" s="26">
-        <v>61854.13</v>
-      </c>
-      <c r="I41" s="26">
-        <v>66819.009999999995</v>
-      </c>
-      <c r="N41" s="26">
-        <v>97642.64</v>
-      </c>
-      <c r="P41" s="26">
-        <v>47993.84</v>
-      </c>
-      <c r="Q41" s="26">
-        <v>81920.52</v>
-      </c>
-      <c r="S41" s="26">
-        <v>80886.17</v>
-      </c>
-      <c r="U41" s="26">
-        <v>71990.759999999995</v>
-      </c>
-      <c r="V41" s="26">
-        <v>69508.320000000007</v>
-      </c>
-      <c r="W41" s="26">
-        <v>48614.45</v>
-      </c>
-      <c r="X41" s="26">
-        <v>2689.31</v>
-      </c>
-      <c r="Y41" s="26">
-        <v>19032.04</v>
-      </c>
-      <c r="Z41" s="26">
-        <v>72611.37</v>
-      </c>
-      <c r="AA41" s="26">
-        <v>84402.96</v>
-      </c>
-      <c r="AC41" s="26">
-        <v>40753.39</v>
-      </c>
-      <c r="AD41" s="26">
-        <v>46338.879999999997</v>
-      </c>
-      <c r="AE41" s="26">
-        <v>7240.45</v>
-      </c>
-      <c r="AG41" s="26">
-        <v>48407.58</v>
-      </c>
-      <c r="AI41" s="26">
-        <v>102400.65</v>
-      </c>
-      <c r="AJ41" s="26">
+      <c r="BV85" s="26">
+        <v>16549.599999999999</v>
+      </c>
+      <c r="BW85" s="26">
         <v>62267.87</v>
       </c>
-      <c r="AK41" s="26">
-        <v>54199.94</v>
-      </c>
-      <c r="AL41" s="26">
-        <v>68887.710000000006</v>
-      </c>
-      <c r="AM41" s="26">
+      <c r="BY85" s="26">
+        <v>55027.42</v>
+      </c>
+      <c r="BZ85" s="26">
+        <v>68267.100000000006</v>
+      </c>
+      <c r="CA85" s="26">
+        <v>49028.19</v>
+      </c>
+      <c r="CB85" s="26">
+        <v>64957.18</v>
+      </c>
+      <c r="CC85" s="26">
+        <v>41167.129999999997</v>
+      </c>
+      <c r="CD85" s="26">
+        <v>17997.689999999999</v>
+      </c>
+      <c r="CE85" s="26">
+        <v>64336.57</v>
+      </c>
+      <c r="CF85" s="26">
+        <v>43442.7</v>
+      </c>
+      <c r="CH85" s="26">
         <v>62681.61</v>
       </c>
-      <c r="AO41" s="26">
-        <v>83368.61</v>
-      </c>
-      <c r="AP41" s="26">
-        <v>112330.41</v>
-      </c>
-      <c r="AR41" s="26">
-        <v>56061.77</v>
-      </c>
-      <c r="AS41" s="26">
+      <c r="CK85" s="26">
         <v>57302.99</v>
       </c>
-      <c r="AU41" s="26">
-        <v>16135.86</v>
-      </c>
-      <c r="AV41" s="26">
-        <v>67232.75</v>
-      </c>
-      <c r="AW41" s="26">
-        <v>72404.5</v>
-      </c>
-      <c r="AX41" s="26">
-        <v>68473.97</v>
-      </c>
-      <c r="AZ41" s="26">
-        <v>73645.72</v>
-      </c>
-      <c r="BB41" s="26">
-        <v>62061</v>
-      </c>
-      <c r="BC41" s="26">
-        <v>58337.34</v>
-      </c>
-      <c r="BE41" s="26">
-        <v>51717.5</v>
-      </c>
-      <c r="BF41" s="26">
-        <v>76128.160000000003</v>
-      </c>
-      <c r="BH41" s="26">
-        <v>27513.71</v>
-      </c>
-      <c r="BI41" s="26">
-        <v>2896.18</v>
-      </c>
-      <c r="BK41" s="26">
-        <v>50476.28</v>
-      </c>
-      <c r="BM41" s="26">
-        <v>100745.69</v>
-      </c>
-      <c r="BN41" s="26">
-        <v>44477.05</v>
-      </c>
-      <c r="BP41" s="26">
-        <v>75714.42</v>
-      </c>
-      <c r="BQ41" s="26">
-        <v>113571.63</v>
-      </c>
-      <c r="BS41" s="26">
-        <v>40339.65</v>
-      </c>
-      <c r="BT41" s="26">
-        <v>9309.15</v>
-      </c>
-      <c r="BV41" s="26">
-        <v>80472.429999999993</v>
-      </c>
-      <c r="BW41" s="26">
+      <c r="CM85" s="26">
+        <v>29996.15</v>
+      </c>
+      <c r="CN85" s="26">
+        <v>45097.66</v>
+      </c>
+      <c r="CO85" s="26">
+        <v>47373.23</v>
+      </c>
+      <c r="CQ85" s="26">
+        <v>88747.23</v>
+      </c>
+      <c r="CR85" s="26">
+        <v>91022.8</v>
+      </c>
+      <c r="CS85" s="26">
+        <v>48821.32</v>
+      </c>
+      <c r="CT85" s="26">
+        <v>58544.21</v>
+      </c>
+      <c r="CU85" s="26">
         <v>24203.79</v>
       </c>
-      <c r="BX41" s="26">
-        <v>65164.05</v>
-      </c>
-      <c r="BZ41" s="26">
-        <v>67439.62</v>
-      </c>
-      <c r="CA41" s="26">
-        <v>76335.03</v>
-      </c>
-      <c r="CB41" s="26">
-        <v>49855.67</v>
-      </c>
-      <c r="CC41" s="26">
-        <v>67232.75</v>
-      </c>
-      <c r="CD41" s="26">
-        <v>50683.15</v>
-      </c>
-      <c r="CE41" s="26">
-        <v>31237.37</v>
-      </c>
-      <c r="CF41" s="26">
-        <v>76541.899999999994</v>
-      </c>
-      <c r="CG41" s="26">
-        <v>50269.41</v>
-      </c>
-      <c r="CI41" s="26">
-        <v>69715.19</v>
-      </c>
-      <c r="CL41" s="26">
-        <v>65784.66</v>
-      </c>
-      <c r="CN41" s="26">
-        <v>11377.85</v>
-      </c>
-      <c r="CO41" s="26">
-        <v>49441.93</v>
-      </c>
-      <c r="CP41" s="26">
-        <v>60406.04</v>
-      </c>
-      <c r="CR41" s="26">
-        <v>97849.51</v>
-      </c>
-      <c r="CS41" s="26">
-        <v>110468.58</v>
-      </c>
-      <c r="CT41" s="26">
-        <v>52544.98</v>
-      </c>
-      <c r="CU41" s="26">
-        <v>62474.74</v>
-      </c>
-      <c r="CV41" s="26">
-        <v>5999.23</v>
-      </c>
-      <c r="CW41" s="26">
-        <v>61233.52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="27">
-        <v>62681.61</v>
-      </c>
-      <c r="C44" s="26">
-        <v>17790.82</v>
-      </c>
-      <c r="D44" s="26">
-        <v>49855.67</v>
-      </c>
-      <c r="F44" s="26">
-        <v>2275.5700000000002</v>
-      </c>
-      <c r="H44" s="26">
-        <v>67025.88</v>
-      </c>
-      <c r="I44" s="26">
-        <v>26272.49</v>
-      </c>
-      <c r="N44" s="26">
-        <v>81299.91</v>
-      </c>
-      <c r="P44" s="26">
-        <v>13446.55</v>
-      </c>
-      <c r="Q44" s="26">
-        <v>70335.8</v>
-      </c>
-      <c r="S44" s="26">
-        <v>71990.759999999995</v>
-      </c>
-      <c r="U44" s="26">
-        <v>63509.09</v>
-      </c>
-      <c r="V44" s="26">
-        <v>50890.02</v>
-      </c>
-      <c r="W44" s="26">
-        <v>25031.27</v>
-      </c>
-      <c r="X44" s="26">
-        <v>56682.38</v>
-      </c>
-      <c r="Y44" s="26">
-        <v>59785.43</v>
-      </c>
-      <c r="Z44" s="26">
-        <v>45304.53</v>
-      </c>
-      <c r="AA44" s="26">
-        <v>52131.24</v>
-      </c>
-      <c r="AC44" s="26">
-        <v>63509.09</v>
-      </c>
-      <c r="AD44" s="26">
-        <v>63302.22</v>
-      </c>
-      <c r="AE44" s="26">
-        <v>67025.88</v>
-      </c>
-      <c r="AG44" s="26">
-        <v>16756.47</v>
-      </c>
-      <c r="AI44" s="26">
-        <v>106538.05</v>
-      </c>
-      <c r="AJ44" s="26">
-        <v>21721.35</v>
-      </c>
-      <c r="AK44" s="26">
-        <v>8481.67</v>
-      </c>
-      <c r="AL44" s="26">
-        <v>13653.42</v>
-      </c>
-      <c r="AM44" s="26">
-        <v>67439.62</v>
-      </c>
-      <c r="AO44" s="26">
-        <v>76128.160000000003</v>
-      </c>
-      <c r="AP44" s="26">
-        <v>84196.09</v>
-      </c>
-      <c r="AR44" s="26">
-        <v>68887.710000000006</v>
-      </c>
-      <c r="AS44" s="26">
-        <v>65370.92</v>
-      </c>
-      <c r="AU44" s="26">
-        <v>58957.95</v>
-      </c>
-      <c r="AV44" s="26">
-        <v>63922.83</v>
-      </c>
-      <c r="AW44" s="26">
-        <v>63302.22</v>
-      </c>
-      <c r="AX44" s="26">
-        <v>60199.17</v>
-      </c>
-      <c r="AZ44" s="26">
-        <v>40132.78</v>
-      </c>
-      <c r="BB44" s="26">
-        <v>66819.009999999995</v>
-      </c>
-      <c r="BC44" s="26">
-        <v>67025.88</v>
-      </c>
-      <c r="BE44" s="26">
-        <v>64543.44</v>
-      </c>
-      <c r="BF44" s="26">
-        <v>51924.37</v>
-      </c>
-      <c r="BH44" s="26">
-        <v>71990.759999999995</v>
-      </c>
-      <c r="BI44" s="26">
-        <v>62267.87</v>
-      </c>
-      <c r="BK44" s="26">
-        <v>26479.360000000001</v>
-      </c>
-      <c r="BM44" s="26">
-        <v>79851.820000000007</v>
-      </c>
-      <c r="BN44" s="26">
-        <v>85023.57</v>
-      </c>
-      <c r="BP44" s="26">
-        <v>37443.47</v>
-      </c>
-      <c r="BQ44" s="26">
-        <v>99504.47</v>
-      </c>
-      <c r="BS44" s="26">
-        <v>84816.7</v>
-      </c>
-      <c r="BT44" s="26">
-        <v>52958.720000000001</v>
-      </c>
-      <c r="BV44" s="26">
-        <v>74266.33</v>
-      </c>
-      <c r="BW44" s="26">
-        <v>64957.18</v>
-      </c>
-      <c r="BX44" s="26">
-        <v>25238.14</v>
-      </c>
-      <c r="BZ44" s="26">
-        <v>61647.26</v>
-      </c>
-      <c r="CA44" s="26">
-        <v>52544.98</v>
-      </c>
-      <c r="CB44" s="26">
-        <v>7861.06</v>
-      </c>
-      <c r="CC44" s="26">
-        <v>25031.27</v>
-      </c>
-      <c r="CD44" s="26">
-        <v>34961.03</v>
-      </c>
-      <c r="CE44" s="26">
-        <v>60406.04</v>
-      </c>
-      <c r="CF44" s="26">
-        <v>66198.399999999994</v>
-      </c>
-      <c r="CG44" s="26">
-        <v>21514.48</v>
-      </c>
-      <c r="CI44" s="26">
-        <v>47993.84</v>
-      </c>
-      <c r="CL44" s="26">
-        <v>10757.24</v>
-      </c>
-      <c r="CN44" s="26">
-        <v>70956.41</v>
-      </c>
-      <c r="CO44" s="26">
-        <v>15515.25</v>
-      </c>
-      <c r="CP44" s="26">
-        <v>65991.53</v>
-      </c>
-      <c r="CR44" s="26">
-        <v>83575.48</v>
-      </c>
-      <c r="CS44" s="26">
-        <v>82748</v>
-      </c>
-      <c r="CT44" s="26">
-        <v>76748.77</v>
-      </c>
-      <c r="CU44" s="26">
-        <v>23790.05</v>
-      </c>
-      <c r="CV44" s="26">
-        <v>65577.789999999994</v>
-      </c>
-      <c r="CW44" s="26">
-        <v>4758.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="27">
-        <v>67646.490000000005</v>
-      </c>
-      <c r="C47" s="26">
-        <v>66612.14</v>
-      </c>
-      <c r="D47" s="26">
-        <v>75093.81</v>
-      </c>
-      <c r="F47" s="26">
-        <v>62267.87</v>
-      </c>
-      <c r="H47" s="26">
-        <v>60199.17</v>
-      </c>
-      <c r="I47" s="26">
-        <v>71577.02</v>
-      </c>
-      <c r="N47" s="26">
-        <v>95780.81</v>
-      </c>
-      <c r="P47" s="26">
-        <v>58957.95</v>
-      </c>
-      <c r="Q47" s="26">
-        <v>82334.259999999995</v>
-      </c>
-      <c r="S47" s="26">
-        <v>84196.09</v>
-      </c>
-      <c r="U47" s="26">
-        <v>72404.5</v>
-      </c>
-      <c r="V47" s="26">
-        <v>70335.8</v>
-      </c>
-      <c r="W47" s="26">
-        <v>60199.17</v>
-      </c>
-      <c r="X47" s="26">
-        <v>10757.24</v>
-      </c>
-      <c r="Y47" s="26">
-        <v>7447.32</v>
-      </c>
-      <c r="Z47" s="26">
-        <v>74680.070000000007</v>
-      </c>
-      <c r="AA47" s="26">
-        <v>91229.67</v>
-      </c>
-      <c r="AC47" s="26">
-        <v>38684.69</v>
-      </c>
-      <c r="AD47" s="26">
-        <v>44270.18</v>
-      </c>
-      <c r="AE47" s="26">
-        <v>21721.35</v>
-      </c>
-      <c r="AG47" s="26">
-        <v>55234.29</v>
-      </c>
-      <c r="AI47" s="26">
-        <v>105710.57</v>
-      </c>
-      <c r="AJ47" s="26">
-        <v>72818.240000000005</v>
-      </c>
-      <c r="AK47" s="26">
-        <v>64957.18</v>
-      </c>
-      <c r="AL47" s="26">
-        <v>67853.36</v>
-      </c>
-      <c r="AM47" s="26">
-        <v>62267.87</v>
-      </c>
-      <c r="AO47" s="26">
-        <v>91022.8</v>
-      </c>
-      <c r="AP47" s="26">
-        <v>103641.87</v>
-      </c>
-      <c r="AR47" s="26">
-        <v>51924.37</v>
-      </c>
-      <c r="AS47" s="26">
-        <v>55648.03</v>
-      </c>
-      <c r="AU47" s="26">
-        <v>5999.23</v>
-      </c>
-      <c r="AV47" s="26">
-        <v>66612.14</v>
-      </c>
-      <c r="AW47" s="26">
-        <v>72611.37</v>
-      </c>
-      <c r="AX47" s="26">
-        <v>69301.45</v>
-      </c>
-      <c r="AZ47" s="26">
-        <v>77576.25</v>
-      </c>
-      <c r="BB47" s="26">
-        <v>61233.52</v>
-      </c>
-      <c r="BC47" s="26">
-        <v>56889.25</v>
-      </c>
-      <c r="BE47" s="26">
-        <v>49855.67</v>
-      </c>
-      <c r="BF47" s="26">
-        <v>77369.38</v>
-      </c>
-      <c r="BH47" s="26">
-        <v>19238.91</v>
-      </c>
-      <c r="BI47" s="26">
-        <v>16963.34</v>
-      </c>
-      <c r="BK47" s="26">
-        <v>53993.07</v>
-      </c>
-      <c r="BM47" s="26">
-        <v>96401.42</v>
-      </c>
-      <c r="BN47" s="26">
-        <v>36409.120000000003</v>
-      </c>
-      <c r="BP47" s="26">
-        <v>87919.75</v>
-      </c>
-      <c r="BQ47" s="26">
-        <v>116674.68</v>
-      </c>
-      <c r="BS47" s="26">
-        <v>32064.85</v>
-      </c>
-      <c r="BT47" s="26">
-        <v>8895.41</v>
-      </c>
-      <c r="BV47" s="26">
-        <v>86471.66</v>
-      </c>
-      <c r="BW47" s="26">
-        <v>11584.72</v>
-      </c>
-      <c r="BX47" s="26">
-        <v>73025.11</v>
-      </c>
-      <c r="BZ47" s="26">
-        <v>67853.36</v>
-      </c>
-      <c r="CA47" s="26">
-        <v>77989.990000000005</v>
-      </c>
-      <c r="CB47" s="26">
-        <v>61440.39</v>
-      </c>
-      <c r="CC47" s="26">
-        <v>75714.42</v>
-      </c>
-      <c r="CD47" s="26">
-        <v>54199.94</v>
-      </c>
-      <c r="CE47" s="26">
-        <v>30203.02</v>
-      </c>
-      <c r="CF47" s="26">
-        <v>75714.42</v>
-      </c>
-      <c r="CG47" s="26">
-        <v>61026.65</v>
-      </c>
-      <c r="CI47" s="26">
-        <v>70956.41</v>
-      </c>
-      <c r="CL47" s="26">
-        <v>65577.789999999994</v>
-      </c>
-      <c r="CN47" s="26">
-        <v>25651.88</v>
-      </c>
-      <c r="CO47" s="26">
-        <v>56268.639999999999</v>
-      </c>
-      <c r="CP47" s="26">
-        <v>58957.95</v>
-      </c>
-      <c r="CR47" s="26">
-        <v>97228.9</v>
-      </c>
-      <c r="CS47" s="26">
-        <v>101986.91</v>
-      </c>
-      <c r="CT47" s="26">
-        <v>43856.44</v>
-      </c>
-      <c r="CU47" s="26">
-        <v>68680.84</v>
-      </c>
-      <c r="CV47" s="26">
-        <v>20066.39</v>
-      </c>
-      <c r="CW47" s="26">
-        <v>64336.57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
+      <c r="CV85" s="26">
+        <v>57302.99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A87" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A88" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J88" s="26">
+        <v>7497402</v>
+      </c>
+      <c r="O88" s="26">
+        <v>3662367.28</v>
+      </c>
+      <c r="T88" s="26">
+        <v>1635796.8</v>
+      </c>
+      <c r="BC88" s="26">
+        <v>6347800.3600000003</v>
+      </c>
+      <c r="BT88" s="26">
+        <v>7111172.2000000002</v>
+      </c>
+      <c r="CG88" s="26">
+        <v>6097886.96</v>
+      </c>
+      <c r="CI88" s="26">
+        <v>6684047.4800000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A89" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A90" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A56" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="27">
-        <v>27099.97</v>
-      </c>
-      <c r="C57" s="26">
-        <v>60819.78</v>
-      </c>
-      <c r="D57" s="26">
-        <v>39305.300000000003</v>
-      </c>
-      <c r="F57" s="26">
-        <v>52958.720000000001</v>
-      </c>
-      <c r="H57" s="26">
-        <v>21514.48</v>
-      </c>
-      <c r="I57" s="26">
-        <v>42408.35</v>
-      </c>
-      <c r="N57" s="26">
-        <v>57716.73</v>
-      </c>
-      <c r="P57" s="26">
-        <v>54406.81</v>
-      </c>
-      <c r="Q57" s="26">
-        <v>41994.61</v>
-      </c>
-      <c r="S57" s="26">
-        <v>40960.26</v>
-      </c>
-      <c r="U57" s="26">
-        <v>32271.72</v>
-      </c>
-      <c r="V57" s="26">
-        <v>33306.07</v>
-      </c>
-      <c r="W57" s="26">
-        <v>63095.35</v>
-      </c>
-      <c r="X57" s="26">
-        <v>37443.47</v>
-      </c>
-      <c r="Y57" s="26">
-        <v>34547.29</v>
-      </c>
-      <c r="Z57" s="26">
-        <v>39098.43</v>
-      </c>
-      <c r="AA57" s="26">
-        <v>49028.19</v>
-      </c>
-      <c r="AC57" s="26">
-        <v>13653.42</v>
-      </c>
-      <c r="AD57" s="26">
-        <v>12412.2</v>
-      </c>
-      <c r="AE57" s="26">
-        <v>47786.97</v>
-      </c>
-      <c r="AG57" s="26">
-        <v>35995.379999999997</v>
-      </c>
-      <c r="AI57" s="26">
-        <v>62474.74</v>
-      </c>
-      <c r="AJ57" s="26">
-        <v>40960.26</v>
-      </c>
-      <c r="AK57" s="26">
-        <v>56061.77</v>
-      </c>
-      <c r="AL57" s="26">
-        <v>47580.1</v>
-      </c>
-      <c r="AM57" s="26">
-        <v>22755.7</v>
-      </c>
-      <c r="AO57" s="26">
-        <v>44683.92</v>
-      </c>
-      <c r="AP57" s="26">
-        <v>70956.41</v>
-      </c>
-      <c r="AR57" s="26">
-        <v>18411.43</v>
-      </c>
-      <c r="AS57" s="26">
-        <v>18204.560000000001</v>
-      </c>
-      <c r="AU57" s="26">
-        <v>34133.550000000003</v>
-      </c>
-      <c r="AV57" s="26">
-        <v>27099.97</v>
-      </c>
-      <c r="AW57" s="26">
-        <v>32478.59</v>
-      </c>
-      <c r="AX57" s="26">
-        <v>28961.8</v>
-      </c>
-      <c r="AZ57" s="26">
-        <v>42615.22</v>
-      </c>
-      <c r="BB57" s="26">
-        <v>22135.09</v>
-      </c>
-      <c r="BC57" s="26">
-        <v>19652.650000000001</v>
-      </c>
-      <c r="BE57" s="26">
-        <v>14480.9</v>
-      </c>
-      <c r="BF57" s="26">
-        <v>41374</v>
-      </c>
-      <c r="BH57" s="26">
-        <v>47786.97</v>
-      </c>
-      <c r="BI57" s="26">
-        <v>43028.959999999999</v>
-      </c>
-      <c r="BK57" s="26">
-        <v>27720.58</v>
-      </c>
-      <c r="BM57" s="26">
-        <v>60612.91</v>
-      </c>
-      <c r="BN57" s="26">
-        <v>34133.550000000003</v>
-      </c>
-      <c r="BP57" s="26">
-        <v>47166.36</v>
-      </c>
-      <c r="BQ57" s="26">
-        <v>71783.89</v>
-      </c>
-      <c r="BS57" s="26">
-        <v>38064.080000000002</v>
-      </c>
-      <c r="BT57" s="26">
-        <v>33926.68</v>
-      </c>
-      <c r="BV57" s="26">
-        <v>40546.519999999997</v>
-      </c>
-      <c r="BW57" s="26">
-        <v>40339.65</v>
-      </c>
-      <c r="BX57" s="26">
-        <v>41994.61</v>
-      </c>
-      <c r="BZ57" s="26">
-        <v>27513.71</v>
-      </c>
-      <c r="CA57" s="26">
-        <v>41580.870000000003</v>
-      </c>
-      <c r="CB57" s="26">
-        <v>49028.19</v>
-      </c>
-      <c r="CC57" s="26">
-        <v>44063.31</v>
-      </c>
-      <c r="CD57" s="26">
-        <v>21721.35</v>
-      </c>
-      <c r="CE57" s="26">
-        <v>19238.91</v>
-      </c>
-      <c r="CF57" s="26">
-        <v>37029.730000000003</v>
-      </c>
-      <c r="CG57" s="26">
-        <v>31857.98</v>
-      </c>
-      <c r="CI57" s="26">
-        <v>34961.03</v>
-      </c>
-      <c r="CL57" s="26">
-        <v>50062.54</v>
-      </c>
-      <c r="CN57" s="26">
-        <v>51717.5</v>
-      </c>
-      <c r="CO57" s="26">
-        <v>35581.64</v>
-      </c>
-      <c r="CP57" s="26">
-        <v>20687</v>
-      </c>
-      <c r="CR57" s="26">
-        <v>58130.47</v>
-      </c>
-      <c r="CS57" s="26">
-        <v>69094.58</v>
-      </c>
-      <c r="CT57" s="26">
-        <v>26272.49</v>
-      </c>
-      <c r="CU57" s="26">
-        <v>37236.6</v>
-      </c>
-      <c r="CV57" s="26">
-        <v>46132.01</v>
-      </c>
-      <c r="CW57" s="26">
-        <v>50269.41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A59" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A60" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A61" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A66" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
+    <row r="91" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A91" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A92" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A93" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A94" s="28" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="27">
-        <v>10136.629999999999</v>
-      </c>
-      <c r="C73" s="26">
-        <v>84196.09</v>
-      </c>
-      <c r="D73" s="26">
-        <v>23996.92</v>
-      </c>
-      <c r="F73" s="26">
-        <v>71163.28</v>
-      </c>
-      <c r="H73" s="26">
-        <v>20273.259999999998</v>
-      </c>
-      <c r="I73" s="26">
-        <v>44477.05</v>
-      </c>
-      <c r="N73" s="26">
-        <v>25651.88</v>
-      </c>
-      <c r="P73" s="26">
-        <v>78610.600000000006</v>
-      </c>
-      <c r="Q73" s="26">
-        <v>5378.62</v>
-      </c>
-      <c r="S73" s="26">
-        <v>4551.1400000000003</v>
-      </c>
-      <c r="U73" s="26">
-        <v>5585.49</v>
-      </c>
-      <c r="V73" s="26">
-        <v>21514.48</v>
-      </c>
-      <c r="W73" s="26">
-        <v>88747.23</v>
-      </c>
-      <c r="X73" s="26">
-        <v>75507.55</v>
-      </c>
-      <c r="Y73" s="26">
-        <v>72404.5</v>
-      </c>
-      <c r="Z73" s="26">
-        <v>27927.45</v>
-      </c>
-      <c r="AA73" s="26">
-        <v>28754.93</v>
-      </c>
-      <c r="AC73" s="26">
-        <v>44063.31</v>
-      </c>
-      <c r="AD73" s="26">
-        <v>37236.6</v>
-      </c>
-      <c r="AE73" s="26">
-        <v>86264.79</v>
-      </c>
-      <c r="AG73" s="26">
-        <v>54406.81</v>
-      </c>
-      <c r="AI73" s="26">
-        <v>26479.360000000001</v>
-      </c>
-      <c r="AJ73" s="26">
-        <v>49855.67</v>
-      </c>
-      <c r="AK73" s="26">
-        <v>76748.77</v>
-      </c>
-      <c r="AL73" s="26">
-        <v>58957.95</v>
-      </c>
-      <c r="AM73" s="26">
-        <v>17790.82</v>
-      </c>
-      <c r="AO73" s="26">
-        <v>9722.89</v>
-      </c>
-      <c r="AP73" s="26">
-        <v>32892.33</v>
-      </c>
-      <c r="AR73" s="26">
-        <v>36615.99</v>
-      </c>
-      <c r="AS73" s="26">
-        <v>26686.23</v>
-      </c>
-      <c r="AU73" s="26">
-        <v>71990.759999999995</v>
-      </c>
-      <c r="AV73" s="26">
-        <v>11170.98</v>
-      </c>
-      <c r="AW73" s="26">
-        <v>5792.36</v>
-      </c>
-      <c r="AX73" s="26">
-        <v>9929.76</v>
-      </c>
-      <c r="AZ73" s="26">
-        <v>34340.42</v>
-      </c>
-      <c r="BB73" s="26">
-        <v>19032.04</v>
-      </c>
-      <c r="BC73" s="26">
-        <v>26479.360000000001</v>
-      </c>
-      <c r="BE73" s="26">
-        <v>32271.72</v>
-      </c>
-      <c r="BF73" s="26">
-        <v>22341.96</v>
-      </c>
-      <c r="BH73" s="26">
-        <v>85230.44</v>
-      </c>
-      <c r="BI73" s="26">
-        <v>81713.649999999994</v>
-      </c>
-      <c r="BK73" s="26">
-        <v>42822.09</v>
-      </c>
-      <c r="BM73" s="26">
-        <v>25031.27</v>
-      </c>
-      <c r="BN73" s="26">
-        <v>52544.98</v>
-      </c>
-      <c r="BP73" s="26">
-        <v>43028.959999999999</v>
-      </c>
-      <c r="BQ73" s="26">
-        <v>48200.71</v>
-      </c>
-      <c r="BS73" s="26">
-        <v>56475.51</v>
-      </c>
-      <c r="BT73" s="26">
-        <v>71783.89</v>
-      </c>
-      <c r="BV73" s="26">
-        <v>5171.75</v>
-      </c>
-      <c r="BW73" s="26">
-        <v>77783.12</v>
-      </c>
-      <c r="BX73" s="26">
-        <v>47373.23</v>
-      </c>
-      <c r="BZ73" s="26">
-        <v>10136.629999999999</v>
-      </c>
-      <c r="CA73" s="26">
-        <v>21307.61</v>
-      </c>
-      <c r="CB73" s="26">
-        <v>71370.149999999994</v>
-      </c>
-      <c r="CC73" s="26">
-        <v>49028.19</v>
-      </c>
-      <c r="CD73" s="26">
-        <v>35374.769999999997</v>
-      </c>
-      <c r="CE73" s="26">
-        <v>55027.42</v>
-      </c>
-      <c r="CF73" s="26">
-        <v>4551.1400000000003</v>
-      </c>
-      <c r="CG73" s="26">
-        <v>48200.71</v>
-      </c>
-      <c r="CI73" s="26">
-        <v>24410.66</v>
-      </c>
-      <c r="CL73" s="26">
-        <v>60819.78</v>
-      </c>
-      <c r="CN73" s="26">
-        <v>90195.32</v>
-      </c>
-      <c r="CO73" s="26">
-        <v>54406.81</v>
-      </c>
-      <c r="CP73" s="26">
-        <v>21928.22</v>
-      </c>
-      <c r="CR73" s="26">
-        <v>24410.66</v>
-      </c>
-      <c r="CS73" s="26">
-        <v>31237.37</v>
-      </c>
-      <c r="CT73" s="26">
-        <v>44270.18</v>
-      </c>
-      <c r="CU73" s="26">
-        <v>46545.75</v>
-      </c>
-      <c r="CV73" s="26">
-        <v>84609.83</v>
-      </c>
-      <c r="CW73" s="26">
-        <v>66405.27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A74" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A76" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A80" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A81" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A82" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A83" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A84" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A85" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A86" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="27">
-        <v>55027.42</v>
-      </c>
-      <c r="C86" s="26">
-        <v>60819.78</v>
-      </c>
-      <c r="D86" s="26">
-        <v>65784.66</v>
-      </c>
-      <c r="F86" s="26">
-        <v>55854.9</v>
-      </c>
-      <c r="H86" s="26">
-        <v>47166.36</v>
-      </c>
-      <c r="I86" s="26">
-        <v>62888.480000000003</v>
-      </c>
-      <c r="N86" s="26">
-        <v>84402.96</v>
-      </c>
-      <c r="P86" s="26">
-        <v>52338.11</v>
-      </c>
-      <c r="Q86" s="26">
-        <v>69922.06</v>
-      </c>
-      <c r="S86" s="26">
-        <v>68473.97</v>
-      </c>
-      <c r="U86" s="26">
-        <v>59578.559999999998</v>
-      </c>
-      <c r="V86" s="26">
-        <v>62267.87</v>
-      </c>
-      <c r="W86" s="26">
-        <v>59992.3</v>
-      </c>
-      <c r="X86" s="26">
-        <v>15101.51</v>
-      </c>
-      <c r="Y86" s="26">
-        <v>11170.98</v>
-      </c>
-      <c r="Z86" s="26">
-        <v>65370.92</v>
-      </c>
-      <c r="AA86" s="26">
-        <v>77989.990000000005</v>
-      </c>
-      <c r="AC86" s="26">
-        <v>26272.49</v>
-      </c>
-      <c r="AD86" s="26">
-        <v>31857.98</v>
-      </c>
-      <c r="AE86" s="26">
-        <v>26065.62</v>
-      </c>
-      <c r="AG86" s="26">
-        <v>44063.31</v>
-      </c>
-      <c r="AI86" s="26">
-        <v>98263.25</v>
-      </c>
-      <c r="AJ86" s="26">
-        <v>59371.69</v>
-      </c>
-      <c r="AK86" s="26">
-        <v>56889.25</v>
-      </c>
-      <c r="AL86" s="26">
-        <v>59578.559999999998</v>
-      </c>
-      <c r="AM86" s="26">
-        <v>51096.89</v>
-      </c>
-      <c r="AO86" s="26">
-        <v>70542.67</v>
-      </c>
-      <c r="AP86" s="26">
-        <v>93298.37</v>
-      </c>
-      <c r="AR86" s="26">
-        <v>42408.35</v>
-      </c>
-      <c r="AS86" s="26">
-        <v>43649.57</v>
-      </c>
-      <c r="AU86" s="26">
-        <v>10550.37</v>
-      </c>
-      <c r="AV86" s="26">
-        <v>54199.94</v>
-      </c>
-      <c r="AW86" s="26">
-        <v>60199.17</v>
-      </c>
-      <c r="AX86" s="26">
-        <v>56475.51</v>
-      </c>
-      <c r="AZ86" s="26">
-        <v>62888.480000000003</v>
-      </c>
-      <c r="BB86" s="26">
-        <v>49235.06</v>
-      </c>
-      <c r="BC86" s="26">
-        <v>44683.92</v>
-      </c>
-      <c r="BE86" s="26">
-        <v>37650.339999999997</v>
-      </c>
-      <c r="BF86" s="26">
-        <v>68060.23</v>
-      </c>
-      <c r="BH86" s="26">
-        <v>23996.92</v>
-      </c>
-      <c r="BI86" s="26">
-        <v>21100.74</v>
-      </c>
-      <c r="BK86" s="26">
-        <v>43442.7</v>
-      </c>
-      <c r="BM86" s="26">
-        <v>85437.31</v>
-      </c>
-      <c r="BN86" s="26">
-        <v>40960.26</v>
-      </c>
-      <c r="BP86" s="26">
-        <v>67853.36</v>
-      </c>
-      <c r="BQ86" s="26">
-        <v>109020.49</v>
-      </c>
-      <c r="BS86" s="26">
-        <v>36615.99</v>
-      </c>
-      <c r="BT86" s="26">
-        <v>11584.72</v>
-      </c>
-      <c r="BV86" s="26">
-        <v>67646.490000000005</v>
-      </c>
-      <c r="BW86" s="26">
-        <v>16549.599999999999</v>
-      </c>
-      <c r="BX86" s="26">
-        <v>62267.87</v>
-      </c>
-      <c r="BZ86" s="26">
-        <v>55027.42</v>
-      </c>
-      <c r="CA86" s="26">
-        <v>68267.100000000006</v>
-      </c>
-      <c r="CB86" s="26">
-        <v>49028.19</v>
-      </c>
-      <c r="CC86" s="26">
-        <v>64957.18</v>
-      </c>
-      <c r="CD86" s="26">
-        <v>41167.129999999997</v>
-      </c>
-      <c r="CE86" s="26">
-        <v>17997.689999999999</v>
-      </c>
-      <c r="CF86" s="26">
-        <v>64336.57</v>
-      </c>
-      <c r="CG86" s="26">
-        <v>43442.7</v>
-      </c>
-      <c r="CI86" s="26">
-        <v>62681.61</v>
-      </c>
-      <c r="CL86" s="26">
-        <v>57302.99</v>
-      </c>
-      <c r="CN86" s="26">
-        <v>29996.15</v>
-      </c>
-      <c r="CO86" s="26">
-        <v>45097.66</v>
-      </c>
-      <c r="CP86" s="26">
-        <v>47373.23</v>
-      </c>
-      <c r="CR86" s="26">
-        <v>88747.23</v>
-      </c>
-      <c r="CS86" s="26">
-        <v>91022.8</v>
-      </c>
-      <c r="CT86" s="26">
-        <v>48821.32</v>
-      </c>
-      <c r="CU86" s="26">
-        <v>58544.21</v>
-      </c>
-      <c r="CV86" s="26">
-        <v>24203.79</v>
-      </c>
-      <c r="CW86" s="26">
-        <v>57302.99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A87" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A88" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A89" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="J89" s="26">
-        <v>7497402</v>
-      </c>
-      <c r="O89" s="26">
-        <v>3662367.28</v>
-      </c>
-      <c r="T89" s="26">
-        <v>1635796.8</v>
-      </c>
-      <c r="BD89" s="26">
-        <v>6347800.3600000003</v>
-      </c>
-      <c r="BU89" s="26">
-        <v>7111172.2000000002</v>
-      </c>
-      <c r="CH89" s="26">
-        <v>6097886.96</v>
-      </c>
-      <c r="CJ89" s="26">
-        <v>6684047.4800000004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A90" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A91" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A92" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A93" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A94" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:101" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -18752,7 +18740,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20044,7 +20032,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20074,7 +20062,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="14">
         <v>40</v>
@@ -20097,7 +20085,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="14">
         <v>120</v>
@@ -20120,7 +20108,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="14">
         <v>4</v>
@@ -20143,7 +20131,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="14">
         <v>3</v>
@@ -20166,7 +20154,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" s="14">
         <v>20000</v>
@@ -20189,7 +20177,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="14">
         <v>183.33333333333334</v>
@@ -20212,7 +20200,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="14">
         <v>15000</v>
@@ -21260,7 +21248,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="14">
         <v>20</v>
@@ -21286,7 +21274,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="14">
         <v>8</v>
@@ -21312,7 +21300,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="14">
         <v>2</v>
@@ -21338,7 +21326,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="14">
         <v>72</v>
@@ -21364,7 +21352,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="14">
         <v>20000</v>
@@ -21390,7 +21378,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="14">
         <v>375</v>
@@ -21416,7 +21404,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="14">
         <v>15000</v>
@@ -22451,8 +22439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:CK1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CF1" sqref="CF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22656,20 +22644,20 @@
       <c r="BN1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BO1" s="14" t="s">
+      <c r="BO1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="BP1" s="14" t="s">
+      <c r="BQ1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="BQ1" s="14" t="s">
+      <c r="BR1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="BR1" s="14" t="s">
+      <c r="BS1" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="BS1" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="BT1" s="21" t="s">
         <v>0</v>
@@ -22678,7 +22666,7 @@
         <v>2</v>
       </c>
       <c r="BV1" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BW1" s="25" t="s">
         <v>33</v>
@@ -22690,37 +22678,37 @@
         <v>8</v>
       </c>
       <c r="BZ1" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CA1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="CB1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD1" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="CC1" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD1" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="CE1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="CF1" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CG1" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CH1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="CI1" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CJ1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CK1" s="21" t="s">
         <v>33</v>
@@ -22728,7 +22716,7 @@
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="14">
         <v>181</v>
@@ -22943,7 +22931,7 @@
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="14">
         <v>24</v>
@@ -23158,7 +23146,7 @@
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="14">
         <v>5</v>
@@ -23373,7 +23361,7 @@
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="14">
         <v>3</v>
@@ -23588,7 +23576,7 @@
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" s="14">
         <v>700</v>
@@ -23803,7 +23791,7 @@
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="14">
         <v>22.916666666666668</v>
@@ -24018,7 +24006,7 @@
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="14">
         <v>900</v>
@@ -27272,12 +27260,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="15">
         <v>12</v>
@@ -27285,7 +27273,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="16">
         <v>500</v>
